--- a/CompetencesCPGE2021_Modif.xlsx
+++ b/CompetencesCPGE2021_Modif.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5247B7-A126-4E3F-8F95-F000C269A475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="9790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="375" windowWidth="19200" windowHeight="9795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Comparatif" sheetId="32" r:id="rId1"/>
@@ -22,10 +21,10 @@
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
+    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
     <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1730,7 +1729,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2576,6 +2575,24 @@
     <xf numFmtId="0" fontId="25" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2591,28 +2608,10 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2966,64 +2965,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S184"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="62.7265625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="82.7265625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" style="104" customWidth="1"/>
-    <col min="7" max="7" width="62.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="82.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.26953125" style="103" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="6.26953125" style="104" customWidth="1"/>
-    <col min="12" max="12" width="62.7265625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="82.7265625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.26953125" style="103" customWidth="1"/>
-    <col min="15" max="15" width="3.7265625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="6.26953125" style="104" customWidth="1"/>
-    <col min="17" max="17" width="62.7265625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="82.7265625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.26953125" style="103" customWidth="1"/>
-    <col min="20" max="16384" width="11.453125" style="17"/>
+    <col min="1" max="1" width="6.28515625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="104" customWidth="1"/>
+    <col min="7" max="7" width="62.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="82.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="103" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="104" customWidth="1"/>
+    <col min="12" max="12" width="62.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="82.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="103" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="17" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="104" customWidth="1"/>
+    <col min="17" max="17" width="62.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="82.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" style="103" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="135" t="s">
+    <row r="1" spans="1:19" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="F1" s="135" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="F1" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="K1" s="135" t="s">
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="K1" s="128" t="s">
         <v>421</v>
       </c>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="P1" s="135" t="s">
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="P1" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F2" s="58"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -3037,7 +3036,7 @@
       <c r="R2" s="18"/>
       <c r="S2" s="49"/>
     </row>
-    <row r="3" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="91" t="s">
         <v>149</v>
       </c>
@@ -3071,7 +3070,7 @@
       <c r="R3" s="21"/>
       <c r="S3" s="66"/>
     </row>
-    <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>148</v>
       </c>
@@ -3105,7 +3104,7 @@
       <c r="R4" s="68"/>
       <c r="S4" s="69"/>
     </row>
-    <row r="5" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
@@ -3155,14 +3154,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="125" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -3174,7 +3173,7 @@
       <c r="G6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="125" t="s">
         <v>329</v>
       </c>
       <c r="I6" s="50" t="s">
@@ -3186,7 +3185,7 @@
       <c r="L6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="M6" s="125" t="s">
         <v>426</v>
       </c>
       <c r="N6" s="50" t="s">
@@ -3198,21 +3197,21 @@
       <c r="Q6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="132" t="s">
+      <c r="R6" s="125" t="s">
         <v>329</v>
       </c>
       <c r="S6" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3222,7 +3221,7 @@
       <c r="G7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="133"/>
+      <c r="H7" s="126"/>
       <c r="I7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3232,7 +3231,7 @@
       <c r="L7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="133"/>
+      <c r="M7" s="126"/>
       <c r="N7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3242,19 +3241,19 @@
       <c r="Q7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="133"/>
+      <c r="R7" s="126"/>
       <c r="S7" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3264,7 +3263,7 @@
       <c r="G8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="133"/>
+      <c r="H8" s="126"/>
       <c r="I8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3274,7 +3273,7 @@
       <c r="L8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="126"/>
       <c r="N8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3284,19 +3283,19 @@
       <c r="Q8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="133"/>
+      <c r="R8" s="126"/>
       <c r="S8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3306,7 +3305,7 @@
       <c r="G9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3316,7 +3315,7 @@
       <c r="L9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="134"/>
+      <c r="M9" s="127"/>
       <c r="N9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3326,12 +3325,12 @@
       <c r="Q9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="134"/>
+      <c r="R9" s="127"/>
       <c r="S9" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>147</v>
       </c>
@@ -3365,14 +3364,14 @@
       <c r="R10" s="68"/>
       <c r="S10" s="69"/>
     </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="125" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -3384,7 +3383,7 @@
       <c r="G11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="125" t="s">
         <v>330</v>
       </c>
       <c r="I11" s="50" t="s">
@@ -3396,7 +3395,7 @@
       <c r="L11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="132" t="s">
+      <c r="M11" s="125" t="s">
         <v>330</v>
       </c>
       <c r="N11" s="50" t="s">
@@ -3408,21 +3407,21 @@
       <c r="Q11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R11" s="132" t="s">
+      <c r="R11" s="125" t="s">
         <v>330</v>
       </c>
       <c r="S11" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3432,7 +3431,7 @@
       <c r="G12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="134"/>
+      <c r="H12" s="127"/>
       <c r="I12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3442,7 +3441,7 @@
       <c r="L12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M12" s="134"/>
+      <c r="M12" s="127"/>
       <c r="N12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3452,10 +3451,10 @@
       <c r="Q12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="R12" s="134"/>
+      <c r="R12" s="127"/>
       <c r="S12" s="50"/>
     </row>
-    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>7</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
         <v>146</v>
       </c>
@@ -3539,14 +3538,14 @@
       <c r="R14" s="68"/>
       <c r="S14" s="69"/>
     </row>
-    <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="125" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -3558,7 +3557,7 @@
       <c r="G15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="132" t="s">
+      <c r="H15" s="125" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="50" t="s">
@@ -3570,7 +3569,7 @@
       <c r="L15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="132" t="s">
+      <c r="M15" s="125" t="s">
         <v>331</v>
       </c>
       <c r="N15" s="50" t="s">
@@ -3582,21 +3581,21 @@
       <c r="Q15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R15" s="132" t="s">
+      <c r="R15" s="125" t="s">
         <v>331</v>
       </c>
       <c r="S15" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3606,7 +3605,7 @@
       <c r="G16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="133"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3616,7 +3615,7 @@
       <c r="L16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="133"/>
+      <c r="M16" s="126"/>
       <c r="N16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3626,19 +3625,19 @@
       <c r="Q16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="133"/>
+      <c r="R16" s="126"/>
       <c r="S16" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3648,7 +3647,7 @@
       <c r="G17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="133"/>
+      <c r="H17" s="126"/>
       <c r="I17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3658,7 +3657,7 @@
       <c r="L17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="133"/>
+      <c r="M17" s="126"/>
       <c r="N17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3668,19 +3667,19 @@
       <c r="Q17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="133"/>
+      <c r="R17" s="126"/>
       <c r="S17" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3690,7 +3689,7 @@
       <c r="G18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="134"/>
+      <c r="H18" s="127"/>
       <c r="I18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3700,7 +3699,7 @@
       <c r="L18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="134"/>
+      <c r="M18" s="127"/>
       <c r="N18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3710,12 +3709,12 @@
       <c r="Q18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="R18" s="134"/>
+      <c r="R18" s="127"/>
       <c r="S18" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" s="18" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
         <v>12</v>
       </c>
@@ -3757,7 +3756,7 @@
       <c r="R19"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
         <v>13</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
         <v>14</v>
       </c>
@@ -3849,7 +3848,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
         <v>15</v>
       </c>
@@ -3899,14 +3898,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="125" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -3919,14 +3918,14 @@
       <c r="J23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:19" s="18" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" s="18" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="134"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -3945,7 +3944,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
         <v>18</v>
       </c>
@@ -3996,7 +3995,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
         <v>19</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
         <v>145</v>
       </c>
@@ -4080,14 +4079,14 @@
       <c r="R27" s="68"/>
       <c r="S27" s="69"/>
     </row>
-    <row r="28" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="125" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -4099,7 +4098,7 @@
       <c r="G28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="132" t="s">
+      <c r="H28" s="125" t="s">
         <v>339</v>
       </c>
       <c r="I28" s="50" t="s">
@@ -4111,7 +4110,7 @@
       <c r="L28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="132" t="s">
+      <c r="M28" s="125" t="s">
         <v>339</v>
       </c>
       <c r="N28" s="50" t="s">
@@ -4123,21 +4122,21 @@
       <c r="Q28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R28" s="132" t="s">
+      <c r="R28" s="125" t="s">
         <v>339</v>
       </c>
       <c r="S28" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="133"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4147,7 +4146,7 @@
       <c r="G29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="133"/>
+      <c r="H29" s="126"/>
       <c r="I29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4157,7 +4156,7 @@
       <c r="L29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="133"/>
+      <c r="M29" s="126"/>
       <c r="N29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4167,19 +4166,19 @@
       <c r="Q29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="133"/>
+      <c r="R29" s="126"/>
       <c r="S29" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="133"/>
+      <c r="C30" s="126"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4189,7 +4188,7 @@
       <c r="G30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="133"/>
+      <c r="H30" s="126"/>
       <c r="I30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4199,7 +4198,7 @@
       <c r="L30" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M30" s="133"/>
+      <c r="M30" s="126"/>
       <c r="N30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4209,19 +4208,19 @@
       <c r="Q30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="R30" s="133"/>
+      <c r="R30" s="126"/>
       <c r="S30" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="134"/>
+      <c r="C31" s="127"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4231,7 +4230,7 @@
       <c r="G31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="134"/>
+      <c r="H31" s="127"/>
       <c r="I31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4241,7 +4240,7 @@
       <c r="L31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M31" s="134"/>
+      <c r="M31" s="127"/>
       <c r="N31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4251,12 +4250,12 @@
       <c r="Q31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="R31" s="134"/>
+      <c r="R31" s="127"/>
       <c r="S31" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
         <v>144</v>
       </c>
@@ -4272,14 +4271,14 @@
       <c r="P32" s="58"/>
       <c r="S32" s="49"/>
     </row>
-    <row r="33" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="132" t="s">
+      <c r="C33" s="125" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -4291,14 +4290,14 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="133"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -4317,14 +4316,14 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="134"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -4343,14 +4342,14 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="132" t="s">
+      <c r="C36" s="125" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -4371,14 +4370,14 @@
       <c r="R36"/>
       <c r="S36"/>
     </row>
-    <row r="37" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="133"/>
+      <c r="C37" s="126"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -4397,14 +4396,14 @@
       <c r="R37"/>
       <c r="S37"/>
     </row>
-    <row r="38" spans="1:19" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="134"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -4423,7 +4422,7 @@
       <c r="R38"/>
       <c r="S38"/>
     </row>
-    <row r="39" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="73"/>
       <c r="B39" s="74"/>
       <c r="C39" s="74"/>
@@ -4443,7 +4442,7 @@
       <c r="R39"/>
       <c r="S39"/>
     </row>
-    <row r="40" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="89" t="s">
         <v>142</v>
       </c>
@@ -4478,7 +4477,7 @@
       <c r="R40" s="76"/>
       <c r="S40" s="77"/>
     </row>
-    <row r="41" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78" t="s">
         <v>141</v>
       </c>
@@ -4512,14 +4511,14 @@
       <c r="R41" s="79"/>
       <c r="S41" s="80"/>
     </row>
-    <row r="42" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="125" t="s">
+      <c r="C42" s="131" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -4531,7 +4530,7 @@
       <c r="G42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="125" t="s">
+      <c r="H42" s="131" t="s">
         <v>205</v>
       </c>
       <c r="I42" s="51" t="s">
@@ -4543,7 +4542,7 @@
       <c r="L42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M42" s="125" t="s">
+      <c r="M42" s="131" t="s">
         <v>205</v>
       </c>
       <c r="N42" s="51" t="s">
@@ -4555,21 +4554,21 @@
       <c r="Q42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="R42" s="125" t="s">
+      <c r="R42" s="131" t="s">
         <v>205</v>
       </c>
       <c r="S42" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="126"/>
+      <c r="C43" s="132"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4579,7 +4578,7 @@
       <c r="G43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="126"/>
+      <c r="H43" s="132"/>
       <c r="I43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4589,7 +4588,7 @@
       <c r="L43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="127"/>
+      <c r="M43" s="133"/>
       <c r="N43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4599,19 +4598,19 @@
       <c r="Q43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="126"/>
+      <c r="R43" s="132"/>
       <c r="S43" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="126"/>
+      <c r="C44" s="132"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4621,7 +4620,7 @@
       <c r="G44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="126"/>
+      <c r="H44" s="132"/>
       <c r="I44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4641,19 +4640,19 @@
       <c r="Q44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="R44" s="126"/>
+      <c r="R44" s="132"/>
       <c r="S44" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="127"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4663,7 +4662,7 @@
       <c r="G45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H45" s="127"/>
+      <c r="H45" s="133"/>
       <c r="I45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4683,12 +4682,12 @@
       <c r="Q45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="R45" s="127"/>
+      <c r="R45" s="133"/>
       <c r="S45" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="78" t="s">
         <v>140</v>
       </c>
@@ -4722,7 +4721,7 @@
       <c r="R46" s="79"/>
       <c r="S46" s="80"/>
     </row>
-    <row r="47" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
         <v>34</v>
       </c>
@@ -4772,14 +4771,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="125" t="s">
+      <c r="C48" s="131" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -4791,7 +4790,7 @@
       <c r="G48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="125" t="s">
+      <c r="H48" s="131" t="s">
         <v>343</v>
       </c>
       <c r="I48" s="51" t="s">
@@ -4803,7 +4802,7 @@
       <c r="L48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M48" s="125" t="s">
+      <c r="M48" s="131" t="s">
         <v>343</v>
       </c>
       <c r="N48" s="51" t="s">
@@ -4815,21 +4814,21 @@
       <c r="Q48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R48" s="125" t="s">
+      <c r="R48" s="131" t="s">
         <v>343</v>
       </c>
       <c r="S48" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="127"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4839,7 +4838,7 @@
       <c r="G49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="127"/>
+      <c r="H49" s="133"/>
       <c r="I49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4849,7 +4848,7 @@
       <c r="L49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="M49" s="127"/>
+      <c r="M49" s="133"/>
       <c r="N49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4859,12 +4858,12 @@
       <c r="Q49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R49" s="127"/>
+      <c r="R49" s="133"/>
       <c r="S49" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="60" t="s">
         <v>37</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A51" s="60" t="s">
         <v>38</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="60" t="s">
         <v>39</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A53" s="60" t="s">
         <v>40</v>
       </c>
@@ -5064,7 +5063,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A54" s="60" t="s">
         <v>41</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="s">
         <v>42</v>
       </c>
@@ -5149,7 +5148,7 @@
       <c r="R55"/>
       <c r="S55"/>
     </row>
-    <row r="56" spans="1:19" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="60" t="s">
         <v>43</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="s">
         <v>44</v>
       </c>
@@ -5226,14 +5225,14 @@
       <c r="R57"/>
       <c r="S57"/>
     </row>
-    <row r="58" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="60" t="s">
         <v>45</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="125" t="s">
+      <c r="C58" s="131" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -5245,7 +5244,7 @@
       <c r="G58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="125" t="s">
+      <c r="H58" s="131" t="s">
         <v>413</v>
       </c>
       <c r="I58" s="51" t="s">
@@ -5257,7 +5256,7 @@
       <c r="L58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="M58" s="125" t="s">
+      <c r="M58" s="131" t="s">
         <v>413</v>
       </c>
       <c r="N58" s="51" t="s">
@@ -5269,21 +5268,21 @@
       <c r="Q58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="R58" s="125" t="s">
+      <c r="R58" s="131" t="s">
         <v>413</v>
       </c>
       <c r="S58" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="60" t="s">
         <v>46</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="127"/>
+      <c r="C59" s="133"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5293,7 +5292,7 @@
       <c r="G59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H59" s="127"/>
+      <c r="H59" s="133"/>
       <c r="I59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5303,7 +5302,7 @@
       <c r="L59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M59" s="127"/>
+      <c r="M59" s="133"/>
       <c r="N59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5313,12 +5312,12 @@
       <c r="Q59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="R59" s="127"/>
+      <c r="R59" s="133"/>
       <c r="S59" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="60" t="s">
         <v>47</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="60" t="s">
         <v>48</v>
       </c>
@@ -5387,7 +5386,7 @@
       <c r="I61"/>
       <c r="P61" s="116"/>
     </row>
-    <row r="62" spans="1:19" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="60" t="s">
         <v>49</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A63" s="60" t="s">
         <v>50</v>
       </c>
@@ -5487,7 +5486,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="60" t="s">
         <v>51</v>
       </c>
@@ -5529,7 +5528,7 @@
       <c r="R64"/>
       <c r="S64"/>
     </row>
-    <row r="65" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A65" s="60" t="s">
         <v>52</v>
       </c>
@@ -5556,7 +5555,7 @@
       <c r="R65"/>
       <c r="S65"/>
     </row>
-    <row r="66" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="60" t="s">
         <v>53</v>
       </c>
@@ -5606,7 +5605,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:19" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A67" s="60" t="s">
         <v>54</v>
       </c>
@@ -5633,7 +5632,7 @@
       <c r="R67"/>
       <c r="S67"/>
     </row>
-    <row r="68" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A68" s="60" t="s">
         <v>55</v>
       </c>
@@ -5660,7 +5659,7 @@
       <c r="R68"/>
       <c r="S68"/>
     </row>
-    <row r="69" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A69" s="60" t="s">
         <v>56</v>
       </c>
@@ -5687,7 +5686,7 @@
       <c r="R69"/>
       <c r="S69"/>
     </row>
-    <row r="70" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="78" t="s">
         <v>138</v>
       </c>
@@ -5721,7 +5720,7 @@
       <c r="R70" s="79"/>
       <c r="S70" s="80"/>
     </row>
-    <row r="71" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A71" s="60" t="s">
         <v>57</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="s">
         <v>58</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A73" s="60" t="s">
         <v>59</v>
       </c>
@@ -5863,7 +5862,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -5875,7 +5874,7 @@
       <c r="P74" s="58"/>
       <c r="S74" s="49"/>
     </row>
-    <row r="75" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="87" t="s">
         <v>135</v>
       </c>
@@ -5909,7 +5908,7 @@
       <c r="R75" s="81"/>
       <c r="S75" s="81"/>
     </row>
-    <row r="76" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="82" t="s">
         <v>134</v>
       </c>
@@ -5943,7 +5942,7 @@
       <c r="R76" s="83"/>
       <c r="S76" s="84"/>
     </row>
-    <row r="77" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>60</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>61</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>62</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>63</v>
       </c>
@@ -6143,7 +6142,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>64</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>65</v>
       </c>
@@ -6220,7 +6219,7 @@
       <c r="R82"/>
       <c r="S82"/>
     </row>
-    <row r="83" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>153</v>
       </c>
@@ -6247,7 +6246,7 @@
       <c r="R83"/>
       <c r="S83"/>
     </row>
-    <row r="84" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="82" t="s">
         <v>133</v>
       </c>
@@ -6281,7 +6280,7 @@
       <c r="R84" s="83"/>
       <c r="S84" s="84"/>
     </row>
-    <row r="85" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A85" s="61" t="s">
         <v>66</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="61" t="s">
         <v>67</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="18" customFormat="1" ht="147" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" s="18" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A87" s="61" t="s">
         <v>68</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
         <v>69</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
         <v>70</v>
       </c>
@@ -6531,7 +6530,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>71</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
         <v>72</v>
       </c>
@@ -6631,14 +6630,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="128" t="s">
+      <c r="C92" s="134" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -6650,7 +6649,7 @@
       <c r="G92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H92" s="128" t="s">
+      <c r="H92" s="134" t="s">
         <v>427</v>
       </c>
       <c r="I92" s="52" t="s">
@@ -6662,7 +6661,7 @@
       <c r="L92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="M92" s="128" t="s">
+      <c r="M92" s="134" t="s">
         <v>427</v>
       </c>
       <c r="N92" s="52" t="s">
@@ -6674,21 +6673,21 @@
       <c r="Q92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R92" s="128" t="s">
+      <c r="R92" s="134" t="s">
         <v>427</v>
       </c>
       <c r="S92" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="129"/>
+      <c r="C93" s="135"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6698,7 +6697,7 @@
       <c r="G93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H93" s="129"/>
+      <c r="H93" s="135"/>
       <c r="I93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6708,7 +6707,7 @@
       <c r="L93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M93" s="129"/>
+      <c r="M93" s="135"/>
       <c r="N93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6718,12 +6717,12 @@
       <c r="Q93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R93" s="129"/>
+      <c r="R93" s="135"/>
       <c r="S93" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
         <v>75</v>
       </c>
@@ -6750,7 +6749,7 @@
       <c r="R94"/>
       <c r="S94"/>
     </row>
-    <row r="95" spans="1:19" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>76</v>
       </c>
@@ -6777,7 +6776,7 @@
       <c r="R95"/>
       <c r="S95"/>
     </row>
-    <row r="96" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="82" t="s">
         <v>132</v>
       </c>
@@ -6811,7 +6810,7 @@
       <c r="R96" s="83"/>
       <c r="S96" s="84"/>
     </row>
-    <row r="97" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>77</v>
       </c>
@@ -6861,7 +6860,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
         <v>78</v>
       </c>
@@ -6911,7 +6910,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>79</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="F100" s="58"/>
       <c r="G100" s="18"/>
       <c r="H100" s="102"/>
@@ -6977,7 +6976,7 @@
       <c r="R100" s="102"/>
       <c r="S100" s="49"/>
     </row>
-    <row r="101" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="86" t="s">
         <v>130</v>
       </c>
@@ -7011,7 +7010,7 @@
       <c r="R101" s="30"/>
       <c r="S101" s="30"/>
     </row>
-    <row r="102" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="s">
         <v>129</v>
       </c>
@@ -7041,7 +7040,7 @@
       </c>
       <c r="S102" s="49"/>
     </row>
-    <row r="103" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="62" t="s">
         <v>80</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="104" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A104" s="62" t="s">
         <v>81</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="62" t="s">
         <v>82</v>
       </c>
@@ -7175,7 +7174,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="s">
         <v>128</v>
       </c>
@@ -7205,7 +7204,7 @@
       </c>
       <c r="S106" s="49"/>
     </row>
-    <row r="107" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="62" t="s">
         <v>83</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="62" t="s">
         <v>84</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="62" t="s">
         <v>85</v>
       </c>
@@ -7322,7 +7321,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="62" t="s">
         <v>86</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="62" t="s">
         <v>87</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A112" s="62" t="s">
         <v>88</v>
       </c>
@@ -7442,7 +7441,7 @@
       <c r="R112"/>
       <c r="S112"/>
     </row>
-    <row r="113" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="s">
         <v>161</v>
       </c>
@@ -7472,7 +7471,7 @@
       </c>
       <c r="S113" s="49"/>
     </row>
-    <row r="114" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="62" t="s">
         <v>110</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A115" s="62" t="s">
         <v>111</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="116" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A116" s="62" t="s">
         <v>112</v>
       </c>
@@ -7606,14 +7605,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="130" t="s">
+      <c r="C117" s="129" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -7625,7 +7624,7 @@
       <c r="G117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="H117" s="130" t="s">
+      <c r="H117" s="129" t="s">
         <v>273</v>
       </c>
       <c r="I117" s="53" t="s">
@@ -7637,7 +7636,7 @@
       <c r="L117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="M117" s="130" t="s">
+      <c r="M117" s="129" t="s">
         <v>273</v>
       </c>
       <c r="N117" s="53" t="s">
@@ -7649,21 +7648,21 @@
       <c r="Q117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="R117" s="130" t="s">
+      <c r="R117" s="129" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="53" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="62" t="s">
         <v>114</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="131"/>
+      <c r="C118" s="130"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7673,7 +7672,7 @@
       <c r="G118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H118" s="131"/>
+      <c r="H118" s="130"/>
       <c r="I118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7683,7 +7682,7 @@
       <c r="L118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="M118" s="131"/>
+      <c r="M118" s="130"/>
       <c r="N118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7693,12 +7692,12 @@
       <c r="Q118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="R118" s="131"/>
+      <c r="R118" s="130"/>
       <c r="S118" s="53" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="119" spans="1:19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="F119" s="58"/>
       <c r="G119" s="18"/>
       <c r="H119" s="18"/>
@@ -7714,7 +7713,7 @@
       <c r="R119" s="18"/>
       <c r="S119" s="49"/>
     </row>
-    <row r="120" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="94" t="s">
         <v>126</v>
       </c>
@@ -7748,7 +7747,7 @@
       <c r="R120" s="33"/>
       <c r="S120" s="33"/>
     </row>
-    <row r="121" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="95" t="s">
         <v>125</v>
       </c>
@@ -7780,7 +7779,7 @@
       </c>
       <c r="S121" s="49"/>
     </row>
-    <row r="122" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A122" s="63" t="s">
         <v>89</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="123" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="63" t="s">
         <v>90</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A124" s="63" t="s">
         <v>91</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="125" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="63" t="s">
         <v>92</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="126" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="63" t="s">
         <v>93</v>
       </c>
@@ -8006,7 +8005,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="63" t="s">
         <v>154</v>
       </c>
@@ -8048,7 +8047,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="128" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="63" t="s">
         <v>155</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="129" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="95" t="s">
         <v>124</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="130" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="63" t="s">
         <v>94</v>
       </c>
@@ -8159,7 +8158,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="131" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="63" t="s">
         <v>95</v>
       </c>
@@ -8201,7 +8200,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="132" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="63" t="s">
         <v>96</v>
       </c>
@@ -8243,7 +8242,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="63" t="s">
         <v>97</v>
       </c>
@@ -8285,7 +8284,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:19" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" s="63" t="s">
         <v>98</v>
       </c>
@@ -8323,7 +8322,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A135" s="63" t="s">
         <v>99</v>
       </c>
@@ -8373,7 +8372,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="136" spans="1:19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="F136" s="58"/>
       <c r="G136" s="18"/>
       <c r="H136" s="18"/>
@@ -8389,7 +8388,7 @@
       <c r="R136" s="1"/>
       <c r="S136" s="103"/>
     </row>
-    <row r="137" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="98" t="s">
         <v>123</v>
       </c>
@@ -8419,7 +8418,7 @@
       <c r="R137" s="1"/>
       <c r="S137" s="103"/>
     </row>
-    <row r="138" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="99" t="s">
         <v>121</v>
       </c>
@@ -8447,7 +8446,7 @@
       <c r="R138" s="1"/>
       <c r="S138" s="103"/>
     </row>
-    <row r="139" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="64" t="s">
         <v>100</v>
       </c>
@@ -8483,7 +8482,7 @@
       <c r="R139" s="1"/>
       <c r="S139" s="103"/>
     </row>
-    <row r="140" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="64" t="s">
         <v>101</v>
       </c>
@@ -8502,7 +8501,7 @@
       <c r="R140" s="1"/>
       <c r="S140" s="103"/>
     </row>
-    <row r="141" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="99" t="s">
         <v>120</v>
       </c>
@@ -8530,7 +8529,7 @@
       <c r="R141" s="1"/>
       <c r="S141" s="103"/>
     </row>
-    <row r="142" spans="1:19" s="18" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" s="18" customFormat="1" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A142" s="64" t="s">
         <v>102</v>
       </c>
@@ -8548,7 +8547,7 @@
       <c r="R142" s="1"/>
       <c r="S142" s="103"/>
     </row>
-    <row r="143" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A143" s="64" t="s">
         <v>103</v>
       </c>
@@ -8574,7 +8573,7 @@
       <c r="R143" s="1"/>
       <c r="S143" s="103"/>
     </row>
-    <row r="144" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A144" s="64" t="s">
         <v>104</v>
       </c>
@@ -8600,7 +8599,7 @@
       <c r="R144" s="1"/>
       <c r="S144" s="103"/>
     </row>
-    <row r="145" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="64" t="s">
         <v>115</v>
       </c>
@@ -8643,7 +8642,7 @@
       <c r="R145" s="1"/>
       <c r="S145" s="103"/>
     </row>
-    <row r="146" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="99" t="s">
         <v>320</v>
       </c>
@@ -8665,7 +8664,7 @@
       <c r="R146" s="1"/>
       <c r="S146" s="103"/>
     </row>
-    <row r="147" spans="1:19" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" s="18" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A147" s="64" t="s">
         <v>325</v>
       </c>
@@ -8691,7 +8690,7 @@
       <c r="R147" s="1"/>
       <c r="S147" s="103"/>
     </row>
-    <row r="148" spans="1:19" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A148" s="64" t="s">
         <v>326</v>
       </c>
@@ -8717,7 +8716,7 @@
       <c r="R148" s="1"/>
       <c r="S148" s="103"/>
     </row>
-    <row r="149" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A149" s="64" t="s">
         <v>327</v>
       </c>
@@ -8743,7 +8742,7 @@
       <c r="R149" s="1"/>
       <c r="S149" s="103"/>
     </row>
-    <row r="150" spans="1:19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="F150" s="104"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -8759,7 +8758,7 @@
       <c r="R150" s="1"/>
       <c r="S150" s="103"/>
     </row>
-    <row r="151" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="100" t="s">
         <v>119</v>
       </c>
@@ -8781,7 +8780,7 @@
       <c r="R151" s="1"/>
       <c r="S151" s="103"/>
     </row>
-    <row r="152" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="101" t="s">
         <v>117</v>
       </c>
@@ -8803,7 +8802,7 @@
       <c r="R152" s="1"/>
       <c r="S152" s="103"/>
     </row>
-    <row r="153" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="65" t="s">
         <v>105</v>
       </c>
@@ -8827,7 +8826,7 @@
       <c r="R153" s="1"/>
       <c r="S153" s="103"/>
     </row>
-    <row r="154" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="65" t="s">
         <v>106</v>
       </c>
@@ -8851,7 +8850,7 @@
       <c r="R154" s="1"/>
       <c r="S154" s="103"/>
     </row>
-    <row r="155" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="65" t="s">
         <v>107</v>
       </c>
@@ -8875,7 +8874,7 @@
       <c r="R155" s="1"/>
       <c r="S155" s="103"/>
     </row>
-    <row r="156" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="65" t="s">
         <v>108</v>
       </c>
@@ -8899,7 +8898,7 @@
       <c r="R156" s="1"/>
       <c r="S156" s="103"/>
     </row>
-    <row r="157" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="101" t="s">
         <v>116</v>
       </c>
@@ -8922,7 +8921,7 @@
       <c r="R157" s="1"/>
       <c r="S157" s="103"/>
     </row>
-    <row r="158" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="65" t="s">
         <v>109</v>
       </c>
@@ -8948,7 +8947,7 @@
       <c r="R158" s="1"/>
       <c r="S158" s="103"/>
     </row>
-    <row r="159" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A159" s="65" t="s">
         <v>156</v>
       </c>
@@ -8975,7 +8974,7 @@
       <c r="R159" s="1"/>
       <c r="S159" s="103"/>
     </row>
-    <row r="160" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A160" s="65" t="s">
         <v>157</v>
       </c>
@@ -9001,7 +9000,7 @@
       <c r="R160" s="1"/>
       <c r="S160" s="103"/>
     </row>
-    <row r="161" spans="1:19" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" s="18" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A161" s="65" t="s">
         <v>158</v>
       </c>
@@ -9027,7 +9026,7 @@
       <c r="R161" s="1"/>
       <c r="S161" s="103"/>
     </row>
-    <row r="162" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A162" s="65" t="s">
         <v>159</v>
       </c>
@@ -9053,7 +9052,7 @@
       <c r="R162" s="1"/>
       <c r="S162" s="103"/>
     </row>
-    <row r="163" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A163" s="65" t="s">
         <v>324</v>
       </c>
@@ -9079,102 +9078,85 @@
       <c r="R163" s="1"/>
       <c r="S163" s="103"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J164" s="18"/>
       <c r="O164" s="18"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J165" s="18"/>
       <c r="O165" s="18"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J166" s="18"/>
       <c r="O166" s="18"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J167" s="18"/>
       <c r="O167" s="18"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J168" s="18"/>
       <c r="O168" s="18"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J169" s="18"/>
       <c r="O169" s="18"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J170" s="18"/>
       <c r="O170" s="18"/>
     </row>
-    <row r="171" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="J171" s="18"/>
       <c r="O171"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J172" s="18"/>
       <c r="O172" s="18"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O173" s="18"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O174" s="18"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O178" s="18"/>
     </row>
-    <row r="179" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O179" s="18"/>
     </row>
-    <row r="180" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O180" s="18"/>
     </row>
-    <row r="181" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O181" s="18"/>
     </row>
-    <row r="182" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O182" s="18"/>
     </row>
-    <row r="183" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O183" s="18"/>
     </row>
-    <row r="184" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O184" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C117:C118"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="H92:H93"/>
     <mergeCell ref="H117:H118"/>
@@ -9191,11 +9173,28 @@
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M15:M18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:S71 F72:G72 I72:L72 N72:Q72 S72 F73:S163">
@@ -9209,31 +9208,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D74A02-76E4-44D7-BB85-5D8A91F6D1BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="62.7265625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="82.7265625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="48" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="17"/>
+    <col min="1" max="1" width="6.28515625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="48" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="135" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-    </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+    </row>
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="91" t="s">
         <v>149</v>
       </c>
@@ -9243,7 +9242,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>148</v>
       </c>
@@ -9253,7 +9252,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
@@ -9267,57 +9266,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="125" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>147</v>
       </c>
@@ -9327,33 +9326,33 @@
       <c r="C10" s="68"/>
       <c r="D10" s="69"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="125" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>7</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
         <v>146</v>
       </c>
@@ -9377,57 +9376,57 @@
       <c r="C14" s="68"/>
       <c r="D14" s="69"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="125" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
         <v>12</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
         <v>13</v>
       </c>
@@ -9455,7 +9454,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
         <v>14</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
         <v>15</v>
       </c>
@@ -9483,33 +9482,33 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="125" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="18" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="18" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="134"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
         <v>18</v>
       </c>
@@ -9523,7 +9522,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
         <v>19</v>
       </c>
@@ -9537,7 +9536,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
         <v>145</v>
       </c>
@@ -9547,57 +9546,57 @@
       <c r="C27" s="68"/>
       <c r="D27" s="69"/>
     </row>
-    <row r="28" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="125" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="133"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="133"/>
+      <c r="C30" s="126"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="134"/>
+      <c r="C31" s="127"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70" t="s">
         <v>144</v>
       </c>
@@ -9607,89 +9606,89 @@
       <c r="C32" s="71"/>
       <c r="D32" s="72"/>
     </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="132" t="s">
+      <c r="C33" s="125" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="133"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="134"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="132" t="s">
+      <c r="C36" s="125" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="133"/>
+      <c r="C37" s="126"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="134"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="73"/>
       <c r="B39" s="74"/>
       <c r="C39" s="74"/>
       <c r="D39" s="75"/>
     </row>
-    <row r="40" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="89" t="s">
         <v>142</v>
       </c>
@@ -9699,7 +9698,7 @@
       <c r="C40" s="76"/>
       <c r="D40" s="77"/>
     </row>
-    <row r="41" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="78" t="s">
         <v>141</v>
       </c>
@@ -9709,57 +9708,57 @@
       <c r="C41" s="79"/>
       <c r="D41" s="80"/>
     </row>
-    <row r="42" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="125" t="s">
+      <c r="C42" s="131" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="126"/>
+      <c r="C43" s="132"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="126"/>
+      <c r="C44" s="132"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="127"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="78" t="s">
         <v>140</v>
       </c>
@@ -9769,7 +9768,7 @@
       <c r="C46" s="79"/>
       <c r="D46" s="80"/>
     </row>
-    <row r="47" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
         <v>34</v>
       </c>
@@ -9783,33 +9782,33 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="125" t="s">
+      <c r="C48" s="131" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="127"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="60" t="s">
         <v>37</v>
       </c>
@@ -9823,7 +9822,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A51" s="60" t="s">
         <v>38</v>
       </c>
@@ -9837,7 +9836,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="60" t="s">
         <v>39</v>
       </c>
@@ -9851,7 +9850,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A53" s="60" t="s">
         <v>40</v>
       </c>
@@ -9865,7 +9864,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A54" s="60" t="s">
         <v>41</v>
       </c>
@@ -9879,7 +9878,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="s">
         <v>42</v>
       </c>
@@ -9893,7 +9892,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="60" t="s">
         <v>43</v>
       </c>
@@ -9907,7 +9906,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="s">
         <v>44</v>
       </c>
@@ -9921,33 +9920,33 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="60" t="s">
         <v>45</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="125" t="s">
+      <c r="C58" s="131" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="60" t="s">
         <v>46</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="127"/>
+      <c r="C59" s="133"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="60" t="s">
         <v>47</v>
       </c>
@@ -9961,7 +9960,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="60" t="s">
         <v>48</v>
       </c>
@@ -9975,7 +9974,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="60" t="s">
         <v>49</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A63" s="60" t="s">
         <v>50</v>
       </c>
@@ -10003,7 +10002,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="60" t="s">
         <v>51</v>
       </c>
@@ -10017,7 +10016,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A65" s="60" t="s">
         <v>52</v>
       </c>
@@ -10031,7 +10030,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="60" t="s">
         <v>53</v>
       </c>
@@ -10045,7 +10044,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A67" s="60" t="s">
         <v>54</v>
       </c>
@@ -10059,7 +10058,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A68" s="60" t="s">
         <v>55</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A69" s="60" t="s">
         <v>56</v>
       </c>
@@ -10087,7 +10086,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="78" t="s">
         <v>138</v>
       </c>
@@ -10097,7 +10096,7 @@
       <c r="C70" s="79"/>
       <c r="D70" s="80"/>
     </row>
-    <row r="71" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A71" s="60" t="s">
         <v>57</v>
       </c>
@@ -10111,7 +10110,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="s">
         <v>58</v>
       </c>
@@ -10125,7 +10124,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A73" s="60" t="s">
         <v>59</v>
       </c>
@@ -10137,13 +10136,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="87" t="s">
         <v>135</v>
       </c>
@@ -10153,7 +10152,7 @@
       <c r="C75" s="81"/>
       <c r="D75" s="81"/>
     </row>
-    <row r="76" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="82" t="s">
         <v>134</v>
       </c>
@@ -10163,7 +10162,7 @@
       <c r="C76" s="83"/>
       <c r="D76" s="84"/>
     </row>
-    <row r="77" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>60</v>
       </c>
@@ -10177,7 +10176,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>61</v>
       </c>
@@ -10191,7 +10190,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>62</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>63</v>
       </c>
@@ -10219,7 +10218,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>64</v>
       </c>
@@ -10233,7 +10232,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>65</v>
       </c>
@@ -10247,7 +10246,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>153</v>
       </c>
@@ -10261,7 +10260,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="82" t="s">
         <v>133</v>
       </c>
@@ -10271,7 +10270,7 @@
       <c r="C84" s="83"/>
       <c r="D84" s="84"/>
     </row>
-    <row r="85" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A85" s="61" t="s">
         <v>66</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="61" t="s">
         <v>67</v>
       </c>
@@ -10299,7 +10298,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="18" customFormat="1" ht="147" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" s="18" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A87" s="61" t="s">
         <v>68</v>
       </c>
@@ -10313,7 +10312,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
         <v>69</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
         <v>70</v>
       </c>
@@ -10341,7 +10340,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>71</v>
       </c>
@@ -10355,7 +10354,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
         <v>72</v>
       </c>
@@ -10369,33 +10368,33 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="128" t="s">
+      <c r="C92" s="134" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="129"/>
+      <c r="C93" s="135"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
         <v>75</v>
       </c>
@@ -10409,7 +10408,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>76</v>
       </c>
@@ -10423,7 +10422,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="82" t="s">
         <v>132</v>
       </c>
@@ -10433,7 +10432,7 @@
       <c r="C96" s="83"/>
       <c r="D96" s="84"/>
     </row>
-    <row r="97" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>77</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
         <v>78</v>
       </c>
@@ -10461,7 +10460,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>79</v>
       </c>
@@ -10475,8 +10474,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="86" t="s">
         <v>130</v>
       </c>
@@ -10486,7 +10485,7 @@
       <c r="C101" s="30"/>
       <c r="D101" s="30"/>
     </row>
-    <row r="102" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="s">
         <v>129</v>
       </c>
@@ -10495,7 +10494,7 @@
       </c>
       <c r="D102" s="49"/>
     </row>
-    <row r="103" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="62" t="s">
         <v>80</v>
       </c>
@@ -10507,7 +10506,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A104" s="62" t="s">
         <v>81</v>
       </c>
@@ -10521,7 +10520,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="62" t="s">
         <v>82</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="s">
         <v>128</v>
       </c>
@@ -10542,7 +10541,7 @@
       </c>
       <c r="D106" s="49"/>
     </row>
-    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="62" t="s">
         <v>83</v>
       </c>
@@ -10554,7 +10553,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="62" t="s">
         <v>84</v>
       </c>
@@ -10566,7 +10565,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="62" t="s">
         <v>85</v>
       </c>
@@ -10578,7 +10577,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="62" t="s">
         <v>86</v>
       </c>
@@ -10590,7 +10589,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="62" t="s">
         <v>87</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A112" s="62" t="s">
         <v>88</v>
       </c>
@@ -10614,7 +10613,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="s">
         <v>161</v>
       </c>
@@ -10623,7 +10622,7 @@
       </c>
       <c r="D113" s="49"/>
     </row>
-    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="62" t="s">
         <v>110</v>
       </c>
@@ -10635,7 +10634,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A115" s="62" t="s">
         <v>111</v>
       </c>
@@ -10647,7 +10646,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A116" s="62" t="s">
         <v>112</v>
       </c>
@@ -10661,34 +10660,34 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="130" t="s">
+      <c r="C117" s="129" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="62" t="s">
         <v>114</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="131"/>
+      <c r="C118" s="130"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="94" t="s">
         <v>126</v>
       </c>
@@ -10698,7 +10697,7 @@
       <c r="C120" s="33"/>
       <c r="D120" s="33"/>
     </row>
-    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="95" t="s">
         <v>125</v>
       </c>
@@ -10708,7 +10707,7 @@
       <c r="C121" s="45"/>
       <c r="D121" s="45"/>
     </row>
-    <row r="122" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A122" s="63" t="s">
         <v>89</v>
       </c>
@@ -10722,7 +10721,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="63" t="s">
         <v>90</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A124" s="63" t="s">
         <v>91</v>
       </c>
@@ -10746,7 +10745,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="63" t="s">
         <v>92</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="63" t="s">
         <v>93</v>
       </c>
@@ -10772,7 +10771,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="63" t="s">
         <v>154</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="63" t="s">
         <v>155</v>
       </c>
@@ -10796,7 +10795,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="95" t="s">
         <v>124</v>
       </c>
@@ -10806,7 +10805,7 @@
       <c r="C129" s="45"/>
       <c r="D129" s="45"/>
     </row>
-    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="63" t="s">
         <v>94</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="63" t="s">
         <v>95</v>
       </c>
@@ -10830,7 +10829,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="63" t="s">
         <v>96</v>
       </c>
@@ -10842,7 +10841,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="63" t="s">
         <v>97</v>
       </c>
@@ -10854,7 +10853,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" s="63" t="s">
         <v>98</v>
       </c>
@@ -10868,7 +10867,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A135" s="63" t="s">
         <v>99</v>
       </c>
@@ -10882,8 +10881,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="137" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="98" t="s">
         <v>123</v>
       </c>
@@ -10893,7 +10892,7 @@
       <c r="C137" s="96"/>
       <c r="D137" s="96"/>
     </row>
-    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
         <v>121</v>
       </c>
@@ -10903,7 +10902,7 @@
       <c r="C138" s="46"/>
       <c r="D138" s="46"/>
     </row>
-    <row r="139" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="64" t="s">
         <v>100</v>
       </c>
@@ -10915,7 +10914,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="64" t="s">
         <v>101</v>
       </c>
@@ -10929,7 +10928,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="99" t="s">
         <v>120</v>
       </c>
@@ -10939,7 +10938,7 @@
       <c r="C141" s="46"/>
       <c r="D141" s="46"/>
     </row>
-    <row r="142" spans="1:4" s="18" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" s="18" customFormat="1" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A142" s="64" t="s">
         <v>102</v>
       </c>
@@ -10953,7 +10952,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A143" s="64" t="s">
         <v>103</v>
       </c>
@@ -10967,7 +10966,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="64" t="s">
         <v>104</v>
       </c>
@@ -10981,7 +10980,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="64" t="s">
         <v>115</v>
       </c>
@@ -10995,7 +10994,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="99" t="s">
         <v>320</v>
       </c>
@@ -11005,7 +11004,7 @@
       <c r="C146" s="46"/>
       <c r="D146" s="46"/>
     </row>
-    <row r="147" spans="1:4" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" s="18" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A147" s="64" t="s">
         <v>325</v>
       </c>
@@ -11019,7 +11018,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A148" s="64" t="s">
         <v>326</v>
       </c>
@@ -11033,7 +11032,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A149" s="64" t="s">
         <v>327</v>
       </c>
@@ -11047,8 +11046,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="151" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="100" t="s">
         <v>119</v>
       </c>
@@ -11058,7 +11057,7 @@
       <c r="C151" s="39"/>
       <c r="D151" s="39"/>
     </row>
-    <row r="152" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="101" t="s">
         <v>117</v>
       </c>
@@ -11068,7 +11067,7 @@
       <c r="C152" s="47"/>
       <c r="D152" s="47"/>
     </row>
-    <row r="153" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="65" t="s">
         <v>105</v>
       </c>
@@ -11080,7 +11079,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="65" t="s">
         <v>106</v>
       </c>
@@ -11092,7 +11091,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="65" t="s">
         <v>107</v>
       </c>
@@ -11104,7 +11103,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="65" t="s">
         <v>108</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="101" t="s">
         <v>116</v>
       </c>
@@ -11126,7 +11125,7 @@
       <c r="C157" s="47"/>
       <c r="D157" s="47"/>
     </row>
-    <row r="158" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="65" t="s">
         <v>109</v>
       </c>
@@ -11140,7 +11139,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A159" s="65" t="s">
         <v>156</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A160" s="65" t="s">
         <v>157</v>
       </c>
@@ -11168,7 +11167,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" s="18" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A161" s="65" t="s">
         <v>158</v>
       </c>
@@ -11182,7 +11181,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="65" t="s">
         <v>159</v>
       </c>
@@ -11196,7 +11195,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A163" s="65" t="s">
         <v>324</v>
       </c>
@@ -11212,12 +11211,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C23:C24"/>
@@ -11225,6 +11218,12 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11232,37 +11231,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F752FCB-318B-4B42-BD1B-46C0671C7822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="104" customWidth="1"/>
-    <col min="2" max="2" width="62.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="103" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="17"/>
+    <col min="1" max="1" width="9" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="103" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="135" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="91" t="s">
         <v>149</v>
       </c>
@@ -11272,7 +11271,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>148</v>
       </c>
@@ -11282,7 +11281,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
@@ -11296,57 +11295,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="125" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>147</v>
       </c>
@@ -11356,33 +11355,33 @@
       <c r="C10" s="68"/>
       <c r="D10" s="69"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="125" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>7</v>
       </c>
@@ -11396,7 +11395,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
         <v>146</v>
       </c>
@@ -11406,57 +11405,57 @@
       <c r="C14" s="68"/>
       <c r="D14" s="69"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="125" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
         <v>12</v>
       </c>
@@ -11470,7 +11469,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
         <v>13</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
         <v>14</v>
       </c>
@@ -11498,7 +11497,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
         <v>15</v>
       </c>
@@ -11512,7 +11511,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="113" t="s">
         <v>16</v>
       </c>
@@ -11526,7 +11525,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="113" t="s">
         <v>17</v>
       </c>
@@ -11540,7 +11539,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67" t="s">
         <v>145</v>
       </c>
@@ -11550,63 +11549,63 @@
       <c r="C25" s="68"/>
       <c r="D25" s="69"/>
     </row>
-    <row r="26" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="132" t="s">
+      <c r="C26" s="125" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="133"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="133"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="134"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="89" t="s">
         <v>142</v>
       </c>
@@ -11616,7 +11615,7 @@
       <c r="C31" s="76"/>
       <c r="D31" s="77"/>
     </row>
-    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78" t="s">
         <v>141</v>
       </c>
@@ -11626,57 +11625,57 @@
       <c r="C32" s="79"/>
       <c r="D32" s="80"/>
     </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="131" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="126"/>
+      <c r="C34" s="132"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="126"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="127"/>
+      <c r="C36" s="133"/>
       <c r="D36" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
         <v>140</v>
       </c>
@@ -11686,7 +11685,7 @@
       <c r="C37" s="79"/>
       <c r="D37" s="80"/>
     </row>
-    <row r="38" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="s">
         <v>34</v>
       </c>
@@ -11700,33 +11699,33 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="125" t="s">
+      <c r="C39" s="131" t="s">
         <v>343</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="127"/>
+      <c r="C40" s="133"/>
       <c r="D40" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
         <v>37</v>
       </c>
@@ -11740,7 +11739,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>38</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
         <v>39</v>
       </c>
@@ -11768,7 +11767,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
         <v>40</v>
       </c>
@@ -11782,7 +11781,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A45" s="60" t="s">
         <v>41</v>
       </c>
@@ -11796,7 +11795,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A46" s="60" t="s">
         <v>42</v>
       </c>
@@ -11810,7 +11809,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
         <v>43</v>
       </c>
@@ -11824,33 +11823,33 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="114" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="125" t="s">
+      <c r="C48" s="131" t="s">
         <v>413</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="114" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C49" s="127"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="114" t="s">
         <v>46</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="114" t="s">
         <v>47</v>
       </c>
@@ -11878,7 +11877,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A52" s="114" t="s">
         <v>48</v>
       </c>
@@ -11892,7 +11891,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A53" s="114" t="s">
         <v>49</v>
       </c>
@@ -11906,7 +11905,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="114" t="s">
         <v>50</v>
       </c>
@@ -11920,7 +11919,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="78" t="s">
         <v>138</v>
       </c>
@@ -11930,7 +11929,7 @@
       <c r="C55" s="79"/>
       <c r="D55" s="80"/>
     </row>
-    <row r="56" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="60" t="s">
         <v>57</v>
       </c>
@@ -11944,7 +11943,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="s">
         <v>58</v>
       </c>
@@ -11958,7 +11957,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="60" t="s">
         <v>59</v>
       </c>
@@ -11970,11 +11969,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="D59" s="49"/>
     </row>
-    <row r="60" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="87" t="s">
         <v>135</v>
       </c>
@@ -11984,7 +11983,7 @@
       <c r="C60" s="81"/>
       <c r="D60" s="81"/>
     </row>
-    <row r="61" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="82" t="s">
         <v>134</v>
       </c>
@@ -11994,7 +11993,7 @@
       <c r="C61" s="83"/>
       <c r="D61" s="84"/>
     </row>
-    <row r="62" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>60</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>61</v>
       </c>
@@ -12022,7 +12021,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
         <v>62</v>
       </c>
@@ -12036,7 +12035,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
         <v>63</v>
       </c>
@@ -12050,7 +12049,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>64</v>
       </c>
@@ -12064,7 +12063,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="82" t="s">
         <v>133</v>
       </c>
@@ -12074,7 +12073,7 @@
       <c r="C67" s="83"/>
       <c r="D67" s="84"/>
     </row>
-    <row r="68" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>66</v>
       </c>
@@ -12088,7 +12087,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>67</v>
       </c>
@@ -12102,7 +12101,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>457</v>
       </c>
@@ -12116,7 +12115,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>458</v>
       </c>
@@ -12130,7 +12129,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
         <v>459</v>
       </c>
@@ -12147,7 +12146,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
         <v>69</v>
       </c>
@@ -12161,7 +12160,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>70</v>
       </c>
@@ -12175,7 +12174,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
         <v>71</v>
       </c>
@@ -12189,7 +12188,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>72</v>
       </c>
@@ -12203,7 +12202,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A77" s="121" t="s">
         <v>73</v>
       </c>
@@ -12220,7 +12219,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="121" t="s">
         <v>437</v>
       </c>
@@ -12234,7 +12233,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="121" t="s">
         <v>439</v>
       </c>
@@ -12248,7 +12247,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A80" s="121" t="s">
         <v>443</v>
       </c>
@@ -12262,7 +12261,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="121" t="s">
         <v>446</v>
       </c>
@@ -12276,7 +12275,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="121" t="s">
         <v>450</v>
       </c>
@@ -12290,7 +12289,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="82" t="s">
         <v>132</v>
       </c>
@@ -12300,7 +12299,7 @@
       <c r="C83" s="83"/>
       <c r="D83" s="84"/>
     </row>
-    <row r="84" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
         <v>77</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A85" s="61" t="s">
         <v>78</v>
       </c>
@@ -12328,7 +12327,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="61" t="s">
         <v>79</v>
       </c>
@@ -12342,13 +12341,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="58"/>
       <c r="B87" s="18"/>
       <c r="C87" s="102"/>
       <c r="D87" s="49"/>
     </row>
-    <row r="88" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="86" t="s">
         <v>130</v>
       </c>
@@ -12358,7 +12357,7 @@
       <c r="C88" s="30"/>
       <c r="D88" s="30"/>
     </row>
-    <row r="89" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="s">
         <v>129</v>
       </c>
@@ -12367,7 +12366,7 @@
       </c>
       <c r="D89" s="49"/>
     </row>
-    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="62" t="s">
         <v>80</v>
       </c>
@@ -12379,7 +12378,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A91" s="62" t="s">
         <v>81</v>
       </c>
@@ -12393,7 +12392,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="62" t="s">
         <v>82</v>
       </c>
@@ -12405,7 +12404,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="s">
         <v>128</v>
       </c>
@@ -12414,7 +12413,7 @@
       </c>
       <c r="D93" s="49"/>
     </row>
-    <row r="94" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="62" t="s">
         <v>83</v>
       </c>
@@ -12426,7 +12425,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A95" s="62" t="s">
         <v>84</v>
       </c>
@@ -12438,7 +12437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="62" t="s">
         <v>85</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="62" t="s">
         <v>86</v>
       </c>
@@ -12462,7 +12461,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="62" t="s">
         <v>87</v>
       </c>
@@ -12474,7 +12473,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A99" s="62" t="s">
         <v>88</v>
       </c>
@@ -12486,7 +12485,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="s">
         <v>161</v>
       </c>
@@ -12495,7 +12494,7 @@
       </c>
       <c r="D100" s="49"/>
     </row>
-    <row r="101" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="62" t="s">
         <v>110</v>
       </c>
@@ -12507,7 +12506,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A102" s="62" t="s">
         <v>111</v>
       </c>
@@ -12519,7 +12518,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A103" s="62" t="s">
         <v>112</v>
       </c>
@@ -12533,39 +12532,39 @@
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C104" s="130" t="s">
+      <c r="C104" s="129" t="s">
         <v>273</v>
       </c>
       <c r="D104" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="62" t="s">
         <v>114</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C105" s="131"/>
+      <c r="C105" s="130"/>
       <c r="D105" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="58"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="49"/>
     </row>
-    <row r="107" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="s">
         <v>126</v>
       </c>
@@ -12575,7 +12574,7 @@
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
     </row>
-    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="95" t="s">
         <v>125</v>
       </c>
@@ -12584,7 +12583,7 @@
       </c>
       <c r="D108" s="49"/>
     </row>
-    <row r="109" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="63" t="s">
         <v>89</v>
       </c>
@@ -12598,7 +12597,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="63" t="s">
         <v>90</v>
       </c>
@@ -12610,7 +12609,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A111" s="63" t="s">
         <v>91</v>
       </c>
@@ -12622,7 +12621,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="63" t="s">
         <v>92</v>
       </c>
@@ -12634,7 +12633,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
         <v>93</v>
       </c>
@@ -12648,7 +12647,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="63" t="s">
         <v>154</v>
       </c>
@@ -12660,7 +12659,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="s">
         <v>155</v>
       </c>
@@ -12670,7 +12669,7 @@
       <c r="C115" s="14"/>
       <c r="D115" s="54"/>
     </row>
-    <row r="116" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="95" t="s">
         <v>124</v>
       </c>
@@ -12678,7 +12677,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="63" t="s">
         <v>94</v>
       </c>
@@ -12690,7 +12689,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="63" t="s">
         <v>95</v>
       </c>
@@ -12702,7 +12701,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="63" t="s">
         <v>96</v>
       </c>
@@ -12714,7 +12713,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="63" t="s">
         <v>97</v>
       </c>
@@ -12726,7 +12725,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A121" s="63" t="s">
         <v>98</v>
       </c>
@@ -12740,7 +12739,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A122" s="63" t="s">
         <v>99</v>
       </c>
@@ -12754,13 +12753,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="123" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="58"/>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="49"/>
     </row>
-    <row r="124" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="98" t="s">
         <v>123</v>
       </c>
@@ -12770,7 +12769,7 @@
       <c r="C124" s="96"/>
       <c r="D124" s="97"/>
     </row>
-    <row r="125" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="99" t="s">
         <v>121</v>
       </c>
@@ -12779,7 +12778,7 @@
       </c>
       <c r="D125" s="49"/>
     </row>
-    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="64" t="s">
         <v>100</v>
       </c>
@@ -12791,7 +12790,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="99" t="s">
         <v>120</v>
       </c>
@@ -12800,7 +12799,7 @@
       </c>
       <c r="D127" s="49"/>
     </row>
-    <row r="128" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="117" t="s">
         <v>102</v>
       </c>
@@ -12814,150 +12813,150 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="104"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="103"/>
     </row>
-    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="104"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="103"/>
     </row>
-    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="104"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="103"/>
     </row>
-    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="104"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="103"/>
     </row>
-    <row r="133" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="104"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="103"/>
     </row>
-    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="104"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="103"/>
     </row>
-    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="104"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="103"/>
     </row>
-    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="104"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="103"/>
     </row>
-    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="104"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="103"/>
     </row>
-    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="104"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="103"/>
     </row>
-    <row r="139" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="104"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="103"/>
     </row>
-    <row r="140" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="104"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="103"/>
     </row>
-    <row r="141" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="104"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="103"/>
     </row>
-    <row r="142" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="104"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="103"/>
     </row>
-    <row r="143" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="104"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="103"/>
     </row>
-    <row r="144" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="104"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="103"/>
     </row>
-    <row r="145" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="104"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="103"/>
     </row>
-    <row r="146" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="104"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="103"/>
     </row>
-    <row r="160" spans="1:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="103"/>
     </row>
-    <row r="161" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="103"/>
     </row>
-    <row r="162" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="103"/>
     </row>
-    <row r="163" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="103"/>
     </row>
-    <row r="164" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="103"/>
     </row>
-    <row r="165" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="103"/>
     </row>
-    <row r="166" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="103"/>
     </row>
-    <row r="167" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="103"/>
@@ -12980,37 +12979,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A286034-52E4-495F-A778-69ED0D6C6785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S159"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="104" customWidth="1"/>
-    <col min="2" max="2" width="62.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="103" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="17"/>
+    <col min="1" max="1" width="6.28515625" style="104" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="103" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="135" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="91" t="s">
         <v>149</v>
       </c>
@@ -13020,7 +13019,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>148</v>
       </c>
@@ -13030,7 +13029,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
@@ -13044,57 +13043,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="125" t="s">
         <v>426</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>147</v>
       </c>
@@ -13104,33 +13103,33 @@
       <c r="C10" s="68"/>
       <c r="D10" s="69"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="125" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>7</v>
       </c>
@@ -13144,7 +13143,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
         <v>146</v>
       </c>
@@ -13154,57 +13153,57 @@
       <c r="C14" s="68"/>
       <c r="D14" s="69"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="125" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
         <v>12</v>
       </c>
@@ -13218,7 +13217,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
         <v>13</v>
       </c>
@@ -13232,7 +13231,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
         <v>14</v>
       </c>
@@ -13246,7 +13245,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="113" t="s">
         <v>15</v>
       </c>
@@ -13260,7 +13259,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="113" t="s">
         <v>16</v>
       </c>
@@ -13274,7 +13273,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
         <v>145</v>
       </c>
@@ -13284,63 +13283,63 @@
       <c r="C24" s="68"/>
       <c r="D24" s="69"/>
     </row>
-    <row r="25" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="125" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="133"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C27" s="133"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="134"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="89" t="s">
         <v>142</v>
       </c>
@@ -13350,7 +13349,7 @@
       <c r="C30" s="76"/>
       <c r="D30" s="77"/>
     </row>
-    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78" t="s">
         <v>141</v>
       </c>
@@ -13360,33 +13359,33 @@
       <c r="C31" s="79"/>
       <c r="D31" s="80"/>
     </row>
-    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="131" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="127"/>
+      <c r="C33" s="133"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
         <v>32</v>
       </c>
@@ -13398,7 +13397,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
         <v>33</v>
       </c>
@@ -13410,7 +13409,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>140</v>
       </c>
@@ -13420,7 +13419,7 @@
       <c r="C36" s="79"/>
       <c r="D36" s="80"/>
     </row>
-    <row r="37" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>34</v>
       </c>
@@ -13434,33 +13433,33 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="131" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="127"/>
+      <c r="C39" s="133"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
         <v>37</v>
       </c>
@@ -13474,7 +13473,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
         <v>38</v>
       </c>
@@ -13488,7 +13487,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>39</v>
       </c>
@@ -13502,7 +13501,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
         <v>40</v>
       </c>
@@ -13516,7 +13515,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
         <v>41</v>
       </c>
@@ -13530,7 +13529,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="114" t="s">
         <v>42</v>
       </c>
@@ -13544,33 +13543,33 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="114" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="125" t="s">
+      <c r="C46" s="131" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="114" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="127"/>
+      <c r="C47" s="133"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="114" t="s">
         <v>45</v>
       </c>
@@ -13584,7 +13583,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="114" t="s">
         <v>46</v>
       </c>
@@ -13598,7 +13597,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A50" s="114" t="s">
         <v>47</v>
       </c>
@@ -13612,7 +13611,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A51" s="114" t="s">
         <v>48</v>
       </c>
@@ -13626,7 +13625,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="114" t="s">
         <v>49</v>
       </c>
@@ -13640,7 +13639,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="78" t="s">
         <v>138</v>
       </c>
@@ -13650,7 +13649,7 @@
       <c r="C53" s="79"/>
       <c r="D53" s="80"/>
     </row>
-    <row r="54" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A54" s="60" t="s">
         <v>57</v>
       </c>
@@ -13664,7 +13663,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="s">
         <v>58</v>
       </c>
@@ -13678,7 +13677,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="60" t="s">
         <v>59</v>
       </c>
@@ -13690,11 +13689,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="58"/>
       <c r="D57" s="49"/>
     </row>
-    <row r="58" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="87" t="s">
         <v>135</v>
       </c>
@@ -13704,7 +13703,7 @@
       <c r="C58" s="81"/>
       <c r="D58" s="81"/>
     </row>
-    <row r="59" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="82" t="s">
         <v>134</v>
       </c>
@@ -13714,7 +13713,7 @@
       <c r="C59" s="83"/>
       <c r="D59" s="84"/>
     </row>
-    <row r="60" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>60</v>
       </c>
@@ -13728,7 +13727,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>61</v>
       </c>
@@ -13742,7 +13741,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>62</v>
       </c>
@@ -13756,7 +13755,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>63</v>
       </c>
@@ -13770,7 +13769,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
         <v>64</v>
       </c>
@@ -13784,7 +13783,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="82" t="s">
         <v>133</v>
       </c>
@@ -13794,7 +13793,7 @@
       <c r="C65" s="83"/>
       <c r="D65" s="84"/>
     </row>
-    <row r="66" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>66</v>
       </c>
@@ -13808,7 +13807,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
         <v>67</v>
       </c>
@@ -13822,7 +13821,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="18" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" s="18" customFormat="1" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>68</v>
       </c>
@@ -13836,7 +13835,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>69</v>
       </c>
@@ -13850,7 +13849,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>70</v>
       </c>
@@ -13864,7 +13863,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>71</v>
       </c>
@@ -13878,7 +13877,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
         <v>72</v>
       </c>
@@ -13892,33 +13891,33 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="128" t="s">
+      <c r="C73" s="134" t="s">
         <v>427</v>
       </c>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="129"/>
+      <c r="C74" s="135"/>
       <c r="D74" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="82" t="s">
         <v>132</v>
       </c>
@@ -13928,7 +13927,7 @@
       <c r="C75" s="83"/>
       <c r="D75" s="84"/>
     </row>
-    <row r="76" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>77</v>
       </c>
@@ -13942,7 +13941,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>78</v>
       </c>
@@ -13956,7 +13955,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>79</v>
       </c>
@@ -13970,13 +13969,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="58"/>
       <c r="B79" s="18"/>
       <c r="C79" s="102"/>
       <c r="D79" s="49"/>
     </row>
-    <row r="80" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="86" t="s">
         <v>130</v>
       </c>
@@ -13986,7 +13985,7 @@
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
     </row>
-    <row r="81" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="s">
         <v>129</v>
       </c>
@@ -13995,7 +13994,7 @@
       </c>
       <c r="D81" s="49"/>
     </row>
-    <row r="82" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="62" t="s">
         <v>80</v>
       </c>
@@ -14007,7 +14006,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A83" s="62" t="s">
         <v>81</v>
       </c>
@@ -14021,7 +14020,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="62" t="s">
         <v>82</v>
       </c>
@@ -14033,7 +14032,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="s">
         <v>128</v>
       </c>
@@ -14042,7 +14041,7 @@
       </c>
       <c r="D85" s="49"/>
     </row>
-    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="62" t="s">
         <v>83</v>
       </c>
@@ -14054,7 +14053,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A87" s="62" t="s">
         <v>84</v>
       </c>
@@ -14066,7 +14065,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="62" t="s">
         <v>85</v>
       </c>
@@ -14078,7 +14077,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="62" t="s">
         <v>86</v>
       </c>
@@ -14090,7 +14089,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="62" t="s">
         <v>87</v>
       </c>
@@ -14102,7 +14101,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A91" s="62" t="s">
         <v>88</v>
       </c>
@@ -14114,7 +14113,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="s">
         <v>161</v>
       </c>
@@ -14123,7 +14122,7 @@
       </c>
       <c r="D92" s="49"/>
     </row>
-    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="62" t="s">
         <v>110</v>
       </c>
@@ -14135,7 +14134,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A94" s="62" t="s">
         <v>111</v>
       </c>
@@ -14147,7 +14146,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A95" s="62" t="s">
         <v>112</v>
       </c>
@@ -14161,39 +14160,39 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="130" t="s">
+      <c r="C96" s="129" t="s">
         <v>273</v>
       </c>
       <c r="D96" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="62" t="s">
         <v>114</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="131"/>
+      <c r="C97" s="130"/>
       <c r="D97" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="58"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="49"/>
     </row>
-    <row r="99" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="s">
         <v>126</v>
       </c>
@@ -14203,7 +14202,7 @@
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
     </row>
-    <row r="100" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="95" t="s">
         <v>125</v>
       </c>
@@ -14212,7 +14211,7 @@
       </c>
       <c r="D100" s="49"/>
     </row>
-    <row r="101" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A101" s="63" t="s">
         <v>89</v>
       </c>
@@ -14226,7 +14225,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="63" t="s">
         <v>90</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A103" s="63" t="s">
         <v>91</v>
       </c>
@@ -14250,7 +14249,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
         <v>92</v>
       </c>
@@ -14262,7 +14261,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A105" s="63" t="s">
         <v>93</v>
       </c>
@@ -14276,7 +14275,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="63" t="s">
         <v>154</v>
       </c>
@@ -14288,7 +14287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="63" t="s">
         <v>155</v>
       </c>
@@ -14300,7 +14299,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="95" t="s">
         <v>124</v>
       </c>
@@ -14308,7 +14307,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="63" t="s">
         <v>94</v>
       </c>
@@ -14320,7 +14319,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="63" t="s">
         <v>95</v>
       </c>
@@ -14332,7 +14331,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="63" t="s">
         <v>96</v>
       </c>
@@ -14344,7 +14343,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="63" t="s">
         <v>97</v>
       </c>
@@ -14356,7 +14355,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
         <v>98</v>
       </c>
@@ -14370,7 +14369,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A114" s="63" t="s">
         <v>99</v>
       </c>
@@ -14384,13 +14383,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="115" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="58"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="49"/>
     </row>
-    <row r="116" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="98" t="s">
         <v>123</v>
       </c>
@@ -14400,7 +14399,7 @@
       <c r="C116" s="96"/>
       <c r="D116" s="97"/>
     </row>
-    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="99" t="s">
         <v>121</v>
       </c>
@@ -14409,7 +14408,7 @@
       </c>
       <c r="D117" s="49"/>
     </row>
-    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="64" t="s">
         <v>100</v>
       </c>
@@ -14421,7 +14420,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="99" t="s">
         <v>120</v>
       </c>
@@ -14430,7 +14429,7 @@
       </c>
       <c r="D119" s="49"/>
     </row>
-    <row r="120" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="64" t="s">
         <v>102</v>
       </c>
@@ -14444,115 +14443,115 @@
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="104"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="103"/>
     </row>
-    <row r="122" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="104"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="103"/>
     </row>
-    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="104"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="103"/>
     </row>
-    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="104"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="103"/>
     </row>
-    <row r="125" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="104"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="103"/>
     </row>
-    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="104"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="103"/>
     </row>
-    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="104"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="103"/>
     </row>
-    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="104"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="103"/>
     </row>
-    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="104"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="103"/>
     </row>
-    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="104"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="103"/>
     </row>
-    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="104"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="103"/>
     </row>
-    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="104"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="103"/>
     </row>
-    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="104"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="103"/>
     </row>
-    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="104"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="103"/>
     </row>
-    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="104"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="103"/>
     </row>
-    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="104"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="103"/>
     </row>
-    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="104"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="103"/>
     </row>
-    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="104"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="103"/>
     </row>
-    <row r="152" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="103"/>
@@ -14572,7 +14571,7 @@
       <c r="R152" s="17"/>
       <c r="S152" s="17"/>
     </row>
-    <row r="153" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="103"/>
@@ -14592,7 +14591,7 @@
       <c r="R153" s="17"/>
       <c r="S153" s="17"/>
     </row>
-    <row r="154" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="103"/>
@@ -14612,7 +14611,7 @@
       <c r="R154" s="17"/>
       <c r="S154" s="17"/>
     </row>
-    <row r="155" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="103"/>
@@ -14632,7 +14631,7 @@
       <c r="R155" s="17"/>
       <c r="S155" s="17"/>
     </row>
-    <row r="156" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="103"/>
@@ -14652,7 +14651,7 @@
       <c r="R156" s="17"/>
       <c r="S156" s="17"/>
     </row>
-    <row r="157" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="103"/>
@@ -14672,7 +14671,7 @@
       <c r="R157" s="17"/>
       <c r="S157" s="17"/>
     </row>
-    <row r="158" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="103"/>
@@ -14692,7 +14691,7 @@
       <c r="R158" s="17"/>
       <c r="S158" s="17"/>
     </row>
-    <row r="159" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="103"/>
@@ -14714,16 +14713,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14731,37 +14730,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1842F1-90E5-4514-89B5-A77EB8FEFB05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="104" customWidth="1"/>
-    <col min="2" max="2" width="62.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="103" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="17"/>
+    <col min="1" max="1" width="6.28515625" style="104" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="103" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="135" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="91" t="s">
         <v>149</v>
       </c>
@@ -14771,7 +14770,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>148</v>
       </c>
@@ -14781,7 +14780,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
@@ -14795,57 +14794,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="125" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>147</v>
       </c>
@@ -14855,31 +14854,31 @@
       <c r="C10" s="68"/>
       <c r="D10" s="69"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="125" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="50"/>
     </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>7</v>
       </c>
@@ -14893,7 +14892,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
         <v>146</v>
       </c>
@@ -14903,57 +14902,57 @@
       <c r="C14" s="68"/>
       <c r="D14" s="69"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="125" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="113" t="s">
         <v>12</v>
       </c>
@@ -14967,7 +14966,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="113" t="s">
         <v>13</v>
       </c>
@@ -14981,7 +14980,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="113" t="s">
         <v>14</v>
       </c>
@@ -14995,7 +14994,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="113" t="s">
         <v>15</v>
       </c>
@@ -15009,7 +15008,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="113" t="s">
         <v>16</v>
       </c>
@@ -15023,7 +15022,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
         <v>145</v>
       </c>
@@ -15033,63 +15032,63 @@
       <c r="C24" s="68"/>
       <c r="D24" s="69"/>
     </row>
-    <row r="25" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="125" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="133"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="133"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="134"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="89" t="s">
         <v>142</v>
       </c>
@@ -15099,7 +15098,7 @@
       <c r="C30" s="76"/>
       <c r="D30" s="77"/>
     </row>
-    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78" t="s">
         <v>141</v>
       </c>
@@ -15109,57 +15108,57 @@
       <c r="C31" s="79"/>
       <c r="D31" s="80"/>
     </row>
-    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="131" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="126"/>
+      <c r="C33" s="132"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="126"/>
+      <c r="C34" s="132"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="127"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>140</v>
       </c>
@@ -15169,7 +15168,7 @@
       <c r="C36" s="79"/>
       <c r="D36" s="80"/>
     </row>
-    <row r="37" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>34</v>
       </c>
@@ -15183,33 +15182,33 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="131" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="127"/>
+      <c r="C39" s="133"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
         <v>37</v>
       </c>
@@ -15223,7 +15222,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
         <v>38</v>
       </c>
@@ -15237,7 +15236,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>39</v>
       </c>
@@ -15251,7 +15250,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
         <v>40</v>
       </c>
@@ -15265,7 +15264,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
         <v>41</v>
       </c>
@@ -15279,7 +15278,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="114" t="s">
         <v>42</v>
       </c>
@@ -15293,33 +15292,33 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="114" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="125" t="s">
+      <c r="C46" s="131" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="114" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="127"/>
+      <c r="C47" s="133"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="114" t="s">
         <v>45</v>
       </c>
@@ -15333,7 +15332,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A49" s="114" t="s">
         <v>46</v>
       </c>
@@ -15347,7 +15346,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A50" s="114" t="s">
         <v>47</v>
       </c>
@@ -15361,7 +15360,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="114" t="s">
         <v>48</v>
       </c>
@@ -15375,7 +15374,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="78" t="s">
         <v>138</v>
       </c>
@@ -15385,7 +15384,7 @@
       <c r="C52" s="79"/>
       <c r="D52" s="80"/>
     </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A53" s="60" t="s">
         <v>57</v>
       </c>
@@ -15399,7 +15398,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A54" s="60" t="s">
         <v>58</v>
       </c>
@@ -15413,7 +15412,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="s">
         <v>59</v>
       </c>
@@ -15425,11 +15424,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="58"/>
       <c r="D56" s="49"/>
     </row>
-    <row r="57" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="87" t="s">
         <v>135</v>
       </c>
@@ -15439,7 +15438,7 @@
       <c r="C57" s="81"/>
       <c r="D57" s="81"/>
     </row>
-    <row r="58" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="82" t="s">
         <v>134</v>
       </c>
@@ -15449,7 +15448,7 @@
       <c r="C58" s="83"/>
       <c r="D58" s="84"/>
     </row>
-    <row r="59" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
         <v>60</v>
       </c>
@@ -15463,7 +15462,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>61</v>
       </c>
@@ -15477,7 +15476,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>62</v>
       </c>
@@ -15491,7 +15490,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>63</v>
       </c>
@@ -15505,7 +15504,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>64</v>
       </c>
@@ -15519,7 +15518,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="82" t="s">
         <v>133</v>
       </c>
@@ -15529,7 +15528,7 @@
       <c r="C64" s="83"/>
       <c r="D64" s="84"/>
     </row>
-    <row r="65" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
         <v>66</v>
       </c>
@@ -15543,7 +15542,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>67</v>
       </c>
@@ -15557,7 +15556,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="18" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" s="18" customFormat="1" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
         <v>68</v>
       </c>
@@ -15571,7 +15570,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>69</v>
       </c>
@@ -15585,7 +15584,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>70</v>
       </c>
@@ -15599,7 +15598,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>71</v>
       </c>
@@ -15613,7 +15612,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>72</v>
       </c>
@@ -15627,33 +15626,33 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="128" t="s">
+      <c r="C72" s="134" t="s">
         <v>427</v>
       </c>
       <c r="D72" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="129"/>
+      <c r="C73" s="135"/>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="82" t="s">
         <v>132</v>
       </c>
@@ -15663,7 +15662,7 @@
       <c r="C74" s="83"/>
       <c r="D74" s="84"/>
     </row>
-    <row r="75" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
         <v>77</v>
       </c>
@@ -15677,7 +15676,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>78</v>
       </c>
@@ -15691,7 +15690,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>79</v>
       </c>
@@ -15705,13 +15704,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="58"/>
       <c r="B78" s="18"/>
       <c r="C78" s="102"/>
       <c r="D78" s="49"/>
     </row>
-    <row r="79" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="86" t="s">
         <v>130</v>
       </c>
@@ -15721,7 +15720,7 @@
       <c r="C79" s="30"/>
       <c r="D79" s="30"/>
     </row>
-    <row r="80" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="93" t="s">
         <v>129</v>
       </c>
@@ -15730,7 +15729,7 @@
       </c>
       <c r="D80" s="49"/>
     </row>
-    <row r="81" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="62" t="s">
         <v>80</v>
       </c>
@@ -15742,7 +15741,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="62" t="s">
         <v>81</v>
       </c>
@@ -15756,7 +15755,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="62" t="s">
         <v>82</v>
       </c>
@@ -15768,7 +15767,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="s">
         <v>128</v>
       </c>
@@ -15777,7 +15776,7 @@
       </c>
       <c r="D84" s="49"/>
     </row>
-    <row r="85" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A85" s="118" t="s">
         <v>83</v>
       </c>
@@ -15789,7 +15788,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="118" t="s">
         <v>84</v>
       </c>
@@ -15801,7 +15800,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="118" t="s">
         <v>85</v>
       </c>
@@ -15813,7 +15812,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="118" t="s">
         <v>86</v>
       </c>
@@ -15825,7 +15824,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="s">
         <v>161</v>
       </c>
@@ -15834,7 +15833,7 @@
       </c>
       <c r="D89" s="49"/>
     </row>
-    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="62" t="s">
         <v>110</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A91" s="62" t="s">
         <v>111</v>
       </c>
@@ -15858,7 +15857,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="62" t="s">
         <v>112</v>
       </c>
@@ -15872,39 +15871,39 @@
         <v>434</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="130" t="s">
+      <c r="C93" s="129" t="s">
         <v>273</v>
       </c>
       <c r="D93" s="53" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="62" t="s">
         <v>114</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="131"/>
+      <c r="C94" s="130"/>
       <c r="D94" s="53" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="95" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="58"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="49"/>
     </row>
-    <row r="96" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="94" t="s">
         <v>126</v>
       </c>
@@ -15914,7 +15913,7 @@
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
     </row>
-    <row r="97" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="95" t="s">
         <v>125</v>
       </c>
@@ -15923,7 +15922,7 @@
       </c>
       <c r="D97" s="49"/>
     </row>
-    <row r="98" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A98" s="63" t="s">
         <v>89</v>
       </c>
@@ -15937,7 +15936,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="63" t="s">
         <v>90</v>
       </c>
@@ -15949,7 +15948,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="63" t="s">
         <v>91</v>
       </c>
@@ -15961,7 +15960,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="63" t="s">
         <v>92</v>
       </c>
@@ -15973,7 +15972,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A102" s="63" t="s">
         <v>93</v>
       </c>
@@ -15987,7 +15986,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="63" t="s">
         <v>154</v>
       </c>
@@ -15999,7 +15998,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
         <v>155</v>
       </c>
@@ -16011,7 +16010,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="95" t="s">
         <v>124</v>
       </c>
@@ -16019,7 +16018,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="63" t="s">
         <v>94</v>
       </c>
@@ -16031,7 +16030,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="63" t="s">
         <v>95</v>
       </c>
@@ -16043,7 +16042,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="63" t="s">
         <v>96</v>
       </c>
@@ -16055,7 +16054,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="63" t="s">
         <v>97</v>
       </c>
@@ -16067,7 +16066,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A110" s="119" t="s">
         <v>98</v>
       </c>
@@ -16081,169 +16080,169 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="104"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="103"/>
     </row>
-    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="104"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="103"/>
     </row>
-    <row r="113" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="104"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="103"/>
     </row>
-    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="104"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="103"/>
     </row>
-    <row r="115" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="104"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="103"/>
     </row>
-    <row r="116" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="104"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="103"/>
     </row>
-    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="104"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="103"/>
     </row>
-    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="104"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="103"/>
     </row>
-    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="104"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="103"/>
     </row>
-    <row r="120" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="104"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="103"/>
     </row>
-    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="104"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="103"/>
     </row>
-    <row r="122" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="104"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="103"/>
     </row>
-    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="104"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="103"/>
     </row>
-    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="104"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="103"/>
     </row>
-    <row r="125" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="104"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="103"/>
     </row>
-    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="104"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="103"/>
     </row>
-    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="104"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="103"/>
     </row>
-    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="104"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="103"/>
     </row>
-    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="104"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="103"/>
     </row>
-    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="104"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="103"/>
     </row>
-    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="104"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="103"/>
     </row>
-    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="104"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="103"/>
     </row>
-    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="104"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="103"/>
     </row>
-    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="104"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="103"/>
     </row>
-    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="104"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="103"/>
     </row>
-    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="104"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="103"/>
     </row>
-    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="104"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="103"/>
     </row>
-    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="104"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -16251,16 +16250,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16268,20 +16267,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>150</v>
       </c>
@@ -16300,7 +16299,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>143</v>
       </c>
@@ -16319,7 +16318,7 @@
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>136</v>
       </c>
@@ -16338,7 +16337,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>131</v>
       </c>
@@ -16357,7 +16356,7 @@
       </c>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>118</v>
       </c>
@@ -16376,7 +16375,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>127</v>
       </c>
@@ -16395,7 +16394,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>122</v>
       </c>

--- a/CompetencesCPGE2021_Modif.xlsx
+++ b/CompetencesCPGE2021_Modif.xlsx
@@ -21,10 +21,10 @@
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
     <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
-    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2205,7 +2205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2575,24 +2575,6 @@
     <xf numFmtId="0" fontId="25" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2607,6 +2589,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2625,8 +2628,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB6338D"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FFB6338D"/>
       <color rgb="FFDE8AC4"/>
       <color rgb="FF0F3399"/>
       <color rgb="FF85A2F3"/>
@@ -2997,30 +3000,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="F1" s="128" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="F1" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="K1" s="128" t="s">
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="K1" s="135" t="s">
         <v>421</v>
       </c>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="P1" s="128" t="s">
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="P1" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F2" s="58"/>
@@ -3161,7 +3164,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="132" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -3173,7 +3176,7 @@
       <c r="G6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="132" t="s">
         <v>329</v>
       </c>
       <c r="I6" s="50" t="s">
@@ -3185,7 +3188,7 @@
       <c r="L6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="125" t="s">
+      <c r="M6" s="132" t="s">
         <v>426</v>
       </c>
       <c r="N6" s="50" t="s">
@@ -3197,7 +3200,7 @@
       <c r="Q6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="125" t="s">
+      <c r="R6" s="132" t="s">
         <v>329</v>
       </c>
       <c r="S6" s="50" t="s">
@@ -3211,7 +3214,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="126"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3221,7 +3224,7 @@
       <c r="G7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="126"/>
+      <c r="H7" s="133"/>
       <c r="I7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3231,7 +3234,7 @@
       <c r="L7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="126"/>
+      <c r="M7" s="133"/>
       <c r="N7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3241,7 +3244,7 @@
       <c r="Q7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="126"/>
+      <c r="R7" s="133"/>
       <c r="S7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3253,7 +3256,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="126"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3263,7 +3266,7 @@
       <c r="G8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="126"/>
+      <c r="H8" s="133"/>
       <c r="I8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3273,7 +3276,7 @@
       <c r="L8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="133"/>
       <c r="N8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3283,7 +3286,7 @@
       <c r="Q8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="126"/>
+      <c r="R8" s="133"/>
       <c r="S8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3295,7 +3298,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="127"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3305,7 +3308,7 @@
       <c r="G9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="127"/>
+      <c r="H9" s="134"/>
       <c r="I9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3315,7 +3318,7 @@
       <c r="L9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="127"/>
+      <c r="M9" s="134"/>
       <c r="N9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3325,7 +3328,7 @@
       <c r="Q9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="127"/>
+      <c r="R9" s="134"/>
       <c r="S9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3371,7 +3374,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -3383,7 +3386,7 @@
       <c r="G11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="125" t="s">
+      <c r="H11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="I11" s="50" t="s">
@@ -3395,7 +3398,7 @@
       <c r="L11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="125" t="s">
+      <c r="M11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="N11" s="50" t="s">
@@ -3407,7 +3410,7 @@
       <c r="Q11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R11" s="125" t="s">
+      <c r="R11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="S11" s="50" t="s">
@@ -3421,7 +3424,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="127"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3431,7 +3434,7 @@
       <c r="G12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="127"/>
+      <c r="H12" s="134"/>
       <c r="I12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3441,7 +3444,7 @@
       <c r="L12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M12" s="127"/>
+      <c r="M12" s="134"/>
       <c r="N12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3451,7 +3454,7 @@
       <c r="Q12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="R12" s="127"/>
+      <c r="R12" s="134"/>
       <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3545,7 +3548,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -3557,7 +3560,7 @@
       <c r="G15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="125" t="s">
+      <c r="H15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="50" t="s">
@@ -3569,7 +3572,7 @@
       <c r="L15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="125" t="s">
+      <c r="M15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="N15" s="50" t="s">
@@ -3581,7 +3584,7 @@
       <c r="Q15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R15" s="125" t="s">
+      <c r="R15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="S15" s="50" t="s">
@@ -3595,7 +3598,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3605,7 +3608,7 @@
       <c r="G16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="126"/>
+      <c r="H16" s="133"/>
       <c r="I16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3615,7 +3618,7 @@
       <c r="L16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="126"/>
+      <c r="M16" s="133"/>
       <c r="N16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3625,7 +3628,7 @@
       <c r="Q16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="126"/>
+      <c r="R16" s="133"/>
       <c r="S16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3637,7 +3640,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="126"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3647,7 +3650,7 @@
       <c r="G17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="126"/>
+      <c r="H17" s="133"/>
       <c r="I17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3657,7 +3660,7 @@
       <c r="L17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="126"/>
+      <c r="M17" s="133"/>
       <c r="N17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3667,7 +3670,7 @@
       <c r="Q17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="126"/>
+      <c r="R17" s="133"/>
       <c r="S17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3679,7 +3682,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="127"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3689,7 +3692,7 @@
       <c r="G18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="127"/>
+      <c r="H18" s="134"/>
       <c r="I18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3699,7 +3702,7 @@
       <c r="L18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="127"/>
+      <c r="M18" s="134"/>
       <c r="N18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3709,7 +3712,7 @@
       <c r="Q18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="R18" s="127"/>
+      <c r="R18" s="134"/>
       <c r="S18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3905,7 +3908,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="132" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -3925,7 +3928,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="127"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -4086,7 +4089,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="132" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -4098,7 +4101,7 @@
       <c r="G28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="125" t="s">
+      <c r="H28" s="132" t="s">
         <v>339</v>
       </c>
       <c r="I28" s="50" t="s">
@@ -4110,7 +4113,7 @@
       <c r="L28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="125" t="s">
+      <c r="M28" s="132" t="s">
         <v>339</v>
       </c>
       <c r="N28" s="50" t="s">
@@ -4122,7 +4125,7 @@
       <c r="Q28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R28" s="125" t="s">
+      <c r="R28" s="132" t="s">
         <v>339</v>
       </c>
       <c r="S28" s="50" t="s">
@@ -4136,7 +4139,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="126"/>
+      <c r="C29" s="133"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4146,7 +4149,7 @@
       <c r="G29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="126"/>
+      <c r="H29" s="133"/>
       <c r="I29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4156,7 +4159,7 @@
       <c r="L29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="126"/>
+      <c r="M29" s="133"/>
       <c r="N29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4166,7 +4169,7 @@
       <c r="Q29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="126"/>
+      <c r="R29" s="133"/>
       <c r="S29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4178,7 +4181,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="126"/>
+      <c r="C30" s="133"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4188,7 +4191,7 @@
       <c r="G30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="126"/>
+      <c r="H30" s="133"/>
       <c r="I30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4198,7 +4201,7 @@
       <c r="L30" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M30" s="126"/>
+      <c r="M30" s="133"/>
       <c r="N30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4208,7 +4211,7 @@
       <c r="Q30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="R30" s="126"/>
+      <c r="R30" s="133"/>
       <c r="S30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4220,7 +4223,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="127"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4230,7 +4233,7 @@
       <c r="G31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="127"/>
+      <c r="H31" s="134"/>
       <c r="I31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4240,7 +4243,7 @@
       <c r="L31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M31" s="127"/>
+      <c r="M31" s="134"/>
       <c r="N31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4250,7 +4253,7 @@
       <c r="Q31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="R31" s="127"/>
+      <c r="R31" s="134"/>
       <c r="S31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4278,7 +4281,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="132" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -4297,7 +4300,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="126"/>
+      <c r="C34" s="133"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -4323,7 +4326,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="127"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -4349,7 +4352,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="125" t="s">
+      <c r="C36" s="132" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -4377,7 +4380,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="126"/>
+      <c r="C37" s="133"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -4403,7 +4406,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="127"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -4518,7 +4521,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="131" t="s">
+      <c r="C42" s="125" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -4530,7 +4533,7 @@
       <c r="G42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="131" t="s">
+      <c r="H42" s="125" t="s">
         <v>205</v>
       </c>
       <c r="I42" s="51" t="s">
@@ -4542,7 +4545,7 @@
       <c r="L42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M42" s="131" t="s">
+      <c r="M42" s="125" t="s">
         <v>205</v>
       </c>
       <c r="N42" s="51" t="s">
@@ -4554,7 +4557,7 @@
       <c r="Q42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="R42" s="131" t="s">
+      <c r="R42" s="125" t="s">
         <v>205</v>
       </c>
       <c r="S42" s="51" t="s">
@@ -4568,7 +4571,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="132"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4578,7 +4581,7 @@
       <c r="G43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="132"/>
+      <c r="H43" s="126"/>
       <c r="I43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4588,7 +4591,7 @@
       <c r="L43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="133"/>
+      <c r="M43" s="127"/>
       <c r="N43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4598,7 +4601,7 @@
       <c r="Q43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="132"/>
+      <c r="R43" s="126"/>
       <c r="S43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4610,7 +4613,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="132"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4620,7 +4623,7 @@
       <c r="G44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="132"/>
+      <c r="H44" s="126"/>
       <c r="I44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4640,7 +4643,7 @@
       <c r="Q44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="R44" s="132"/>
+      <c r="R44" s="126"/>
       <c r="S44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4652,7 +4655,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="133"/>
+      <c r="C45" s="127"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4662,7 +4665,7 @@
       <c r="G45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H45" s="133"/>
+      <c r="H45" s="127"/>
       <c r="I45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4682,7 +4685,7 @@
       <c r="Q45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="R45" s="133"/>
+      <c r="R45" s="127"/>
       <c r="S45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4778,7 +4781,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="131" t="s">
+      <c r="C48" s="125" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -4790,7 +4793,7 @@
       <c r="G48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="131" t="s">
+      <c r="H48" s="125" t="s">
         <v>343</v>
       </c>
       <c r="I48" s="51" t="s">
@@ -4802,7 +4805,7 @@
       <c r="L48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M48" s="131" t="s">
+      <c r="M48" s="125" t="s">
         <v>343</v>
       </c>
       <c r="N48" s="51" t="s">
@@ -4814,7 +4817,7 @@
       <c r="Q48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R48" s="131" t="s">
+      <c r="R48" s="125" t="s">
         <v>343</v>
       </c>
       <c r="S48" s="51" t="s">
@@ -4828,7 +4831,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="133"/>
+      <c r="C49" s="127"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4838,7 +4841,7 @@
       <c r="G49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="133"/>
+      <c r="H49" s="127"/>
       <c r="I49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4848,7 +4851,7 @@
       <c r="L49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="M49" s="133"/>
+      <c r="M49" s="127"/>
       <c r="N49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4858,7 +4861,7 @@
       <c r="Q49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R49" s="133"/>
+      <c r="R49" s="127"/>
       <c r="S49" s="51" t="s">
         <v>185</v>
       </c>
@@ -5232,7 +5235,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="131" t="s">
+      <c r="C58" s="125" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -5244,7 +5247,7 @@
       <c r="G58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="131" t="s">
+      <c r="H58" s="125" t="s">
         <v>413</v>
       </c>
       <c r="I58" s="51" t="s">
@@ -5256,7 +5259,7 @@
       <c r="L58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="M58" s="131" t="s">
+      <c r="M58" s="125" t="s">
         <v>413</v>
       </c>
       <c r="N58" s="51" t="s">
@@ -5268,7 +5271,7 @@
       <c r="Q58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="R58" s="131" t="s">
+      <c r="R58" s="125" t="s">
         <v>413</v>
       </c>
       <c r="S58" s="51" t="s">
@@ -5282,7 +5285,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="133"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5292,7 +5295,7 @@
       <c r="G59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H59" s="133"/>
+      <c r="H59" s="127"/>
       <c r="I59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5302,7 +5305,7 @@
       <c r="L59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M59" s="133"/>
+      <c r="M59" s="127"/>
       <c r="N59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5312,7 +5315,7 @@
       <c r="Q59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="R59" s="133"/>
+      <c r="R59" s="127"/>
       <c r="S59" s="51" t="s">
         <v>169</v>
       </c>
@@ -6637,7 +6640,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="134" t="s">
+      <c r="C92" s="128" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -6649,7 +6652,7 @@
       <c r="G92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H92" s="134" t="s">
+      <c r="H92" s="128" t="s">
         <v>427</v>
       </c>
       <c r="I92" s="52" t="s">
@@ -6661,7 +6664,7 @@
       <c r="L92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="M92" s="134" t="s">
+      <c r="M92" s="128" t="s">
         <v>427</v>
       </c>
       <c r="N92" s="52" t="s">
@@ -6673,7 +6676,7 @@
       <c r="Q92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R92" s="134" t="s">
+      <c r="R92" s="128" t="s">
         <v>427</v>
       </c>
       <c r="S92" s="52" t="s">
@@ -6687,7 +6690,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="135"/>
+      <c r="C93" s="129"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6697,7 +6700,7 @@
       <c r="G93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H93" s="135"/>
+      <c r="H93" s="129"/>
       <c r="I93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6707,7 +6710,7 @@
       <c r="L93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M93" s="135"/>
+      <c r="M93" s="129"/>
       <c r="N93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6717,7 +6720,7 @@
       <c r="Q93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R93" s="135"/>
+      <c r="R93" s="129"/>
       <c r="S93" s="52" t="s">
         <v>185</v>
       </c>
@@ -7612,7 +7615,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="129" t="s">
+      <c r="C117" s="130" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -7624,7 +7627,7 @@
       <c r="G117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="H117" s="129" t="s">
+      <c r="H117" s="130" t="s">
         <v>273</v>
       </c>
       <c r="I117" s="53" t="s">
@@ -7636,7 +7639,7 @@
       <c r="L117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="M117" s="129" t="s">
+      <c r="M117" s="130" t="s">
         <v>273</v>
       </c>
       <c r="N117" s="53" t="s">
@@ -7648,7 +7651,7 @@
       <c r="Q117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="R117" s="129" t="s">
+      <c r="R117" s="130" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="53" t="s">
@@ -7662,7 +7665,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="130"/>
+      <c r="C118" s="131"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7672,7 +7675,7 @@
       <c r="G118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H118" s="130"/>
+      <c r="H118" s="131"/>
       <c r="I118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7682,7 +7685,7 @@
       <c r="L118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="M118" s="130"/>
+      <c r="M118" s="131"/>
       <c r="N118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7692,7 +7695,7 @@
       <c r="Q118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="R118" s="130"/>
+      <c r="R118" s="131"/>
       <c r="S118" s="53" t="s">
         <v>434</v>
       </c>
@@ -9152,11 +9155,28 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M92:M93"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="H92:H93"/>
     <mergeCell ref="H117:H118"/>
@@ -9173,28 +9193,11 @@
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C117:C118"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:S71 F72:G72 I72:L72 N72:Q72 S72 F73:S163">
@@ -9225,12 +9228,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="91" t="s">
@@ -9273,7 +9276,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="132" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -9287,7 +9290,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="126"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -9299,7 +9302,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="126"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -9311,7 +9314,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="127"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -9333,7 +9336,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -9347,7 +9350,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="127"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -9383,7 +9386,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -9397,7 +9400,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -9409,7 +9412,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="126"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -9421,7 +9424,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="127"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -9489,7 +9492,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="132" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -9503,7 +9506,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="127"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -9553,7 +9556,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="132" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -9567,7 +9570,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="126"/>
+      <c r="C29" s="133"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -9579,7 +9582,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="126"/>
+      <c r="C30" s="133"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -9591,7 +9594,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="127"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -9613,7 +9616,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="132" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -9627,7 +9630,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="126"/>
+      <c r="C34" s="133"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -9639,7 +9642,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="127"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -9651,7 +9654,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="125" t="s">
+      <c r="C36" s="132" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -9665,7 +9668,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="126"/>
+      <c r="C37" s="133"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -9677,7 +9680,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="127"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -9715,7 +9718,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="131" t="s">
+      <c r="C42" s="125" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -9729,7 +9732,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="132"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -9741,7 +9744,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="132"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -9753,7 +9756,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="133"/>
+      <c r="C45" s="127"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -9789,7 +9792,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="131" t="s">
+      <c r="C48" s="125" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -9803,7 +9806,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="133"/>
+      <c r="C49" s="127"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -9927,7 +9930,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="131" t="s">
+      <c r="C58" s="125" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -9941,7 +9944,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="133"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -10375,7 +10378,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="134" t="s">
+      <c r="C92" s="128" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -10389,7 +10392,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="135"/>
+      <c r="C93" s="129"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -10667,7 +10670,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="129" t="s">
+      <c r="C117" s="130" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -10681,7 +10684,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="130"/>
+      <c r="C118" s="131"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -11211,6 +11214,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C23:C24"/>
@@ -11218,12 +11227,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11234,13 +11237,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="104" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="104" customWidth="1"/>
     <col min="2" max="2" width="62.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="82.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="103" customWidth="1"/>
@@ -11248,12 +11251,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
@@ -11302,7 +11305,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="132" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -11316,7 +11319,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="126"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -11328,7 +11331,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="126"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -11340,7 +11343,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="127"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -11362,7 +11365,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -11376,7 +11379,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="127"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -11412,7 +11415,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -11426,7 +11429,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -11438,7 +11441,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="126"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -11450,7 +11453,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="127"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -11556,7 +11559,7 @@
       <c r="B26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="132" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="50" t="s">
@@ -11570,7 +11573,7 @@
       <c r="B27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="126"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -11582,7 +11585,7 @@
       <c r="B28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="126"/>
+      <c r="C28" s="133"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -11594,7 +11597,7 @@
       <c r="B29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="127"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -11632,7 +11635,7 @@
       <c r="B33" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="131" t="s">
+      <c r="C33" s="125" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="51" t="s">
@@ -11646,7 +11649,7 @@
       <c r="B34" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="132"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -11658,7 +11661,7 @@
       <c r="B35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="132"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -11670,7 +11673,7 @@
       <c r="B36" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="133"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="51" t="s">
         <v>181</v>
       </c>
@@ -11706,7 +11709,7 @@
       <c r="B39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="131" t="s">
+      <c r="C39" s="125" t="s">
         <v>343</v>
       </c>
       <c r="D39" s="51" t="s">
@@ -11720,7 +11723,7 @@
       <c r="B40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="133"/>
+      <c r="C40" s="127"/>
       <c r="D40" s="51" t="s">
         <v>185</v>
       </c>
@@ -11830,7 +11833,7 @@
       <c r="B48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="131" t="s">
+      <c r="C48" s="125" t="s">
         <v>413</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -11844,7 +11847,7 @@
       <c r="B49" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C49" s="133"/>
+      <c r="C49" s="127"/>
       <c r="D49" s="51" t="s">
         <v>169</v>
       </c>
@@ -12105,10 +12108,10 @@
       <c r="A70" s="61" t="s">
         <v>457</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="136" t="s">
         <v>451</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="136" t="s">
         <v>452</v>
       </c>
       <c r="D70" s="52" t="s">
@@ -12119,10 +12122,10 @@
       <c r="A71" s="61" t="s">
         <v>458</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="136" t="s">
         <v>453</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="136" t="s">
         <v>454</v>
       </c>
       <c r="D71" s="52" t="s">
@@ -12133,10 +12136,10 @@
       <c r="A72" s="61" t="s">
         <v>459</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="136" t="s">
         <v>455</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="136" t="s">
         <v>456</v>
       </c>
       <c r="D72" s="52" t="s">
@@ -12539,7 +12542,7 @@
       <c r="B104" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C104" s="129" t="s">
+      <c r="C104" s="130" t="s">
         <v>273</v>
       </c>
       <c r="D104" s="53" t="s">
@@ -12553,7 +12556,7 @@
       <c r="B105" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C105" s="130"/>
+      <c r="C105" s="131"/>
       <c r="D105" s="53" t="s">
         <v>175</v>
       </c>
@@ -12996,12 +12999,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
@@ -13050,7 +13053,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="132" t="s">
         <v>426</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -13064,7 +13067,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="126"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -13076,7 +13079,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="126"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -13088,7 +13091,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="127"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -13110,7 +13113,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -13124,7 +13127,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="127"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -13160,7 +13163,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -13174,7 +13177,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -13186,7 +13189,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="126"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -13198,7 +13201,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="127"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -13290,7 +13293,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="132" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -13304,7 +13307,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="126"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -13316,7 +13319,7 @@
       <c r="B27" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C27" s="126"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -13328,7 +13331,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="127"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -13366,7 +13369,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="125" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -13380,7 +13383,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="133"/>
+      <c r="C33" s="127"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -13440,7 +13443,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="125" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -13454,7 +13457,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="133"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -13550,7 +13553,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="131" t="s">
+      <c r="C46" s="125" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -13564,7 +13567,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="133"/>
+      <c r="C47" s="127"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -13898,7 +13901,7 @@
       <c r="B73" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="134" t="s">
+      <c r="C73" s="128" t="s">
         <v>427</v>
       </c>
       <c r="D73" s="52" t="s">
@@ -13912,7 +13915,7 @@
       <c r="B74" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="135"/>
+      <c r="C74" s="129"/>
       <c r="D74" s="52" t="s">
         <v>185</v>
       </c>
@@ -14167,7 +14170,7 @@
       <c r="B96" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="129" t="s">
+      <c r="C96" s="130" t="s">
         <v>273</v>
       </c>
       <c r="D96" s="53" t="s">
@@ -14181,7 +14184,7 @@
       <c r="B97" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="130"/>
+      <c r="C97" s="131"/>
       <c r="D97" s="53" t="s">
         <v>175</v>
       </c>
@@ -14713,16 +14716,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14747,12 +14750,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
@@ -14801,7 +14804,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="132" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -14815,7 +14818,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="126"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -14827,7 +14830,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="126"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -14839,7 +14842,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="127"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -14861,7 +14864,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="132" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -14875,7 +14878,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="127"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -14909,7 +14912,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="132" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -14923,7 +14926,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -14935,7 +14938,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="126"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -14947,7 +14950,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="127"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -15039,7 +15042,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="132" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -15053,7 +15056,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="126"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -15065,7 +15068,7 @@
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="126"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -15077,7 +15080,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="127"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -15115,7 +15118,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="125" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -15129,7 +15132,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="132"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -15141,7 +15144,7 @@
       <c r="B34" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="132"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -15153,7 +15156,7 @@
       <c r="B35" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="133"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -15189,7 +15192,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="125" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -15203,7 +15206,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="133"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -15299,7 +15302,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="131" t="s">
+      <c r="C46" s="125" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -15313,7 +15316,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="133"/>
+      <c r="C47" s="127"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -15633,7 +15636,7 @@
       <c r="B72" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="134" t="s">
+      <c r="C72" s="128" t="s">
         <v>427</v>
       </c>
       <c r="D72" s="52" t="s">
@@ -15647,7 +15650,7 @@
       <c r="B73" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="135"/>
+      <c r="C73" s="129"/>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
@@ -15878,7 +15881,7 @@
       <c r="B93" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="129" t="s">
+      <c r="C93" s="130" t="s">
         <v>273</v>
       </c>
       <c r="D93" s="53" t="s">
@@ -15892,7 +15895,7 @@
       <c r="B94" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="130"/>
+      <c r="C94" s="131"/>
       <c r="D94" s="53" t="s">
         <v>434</v>
       </c>
@@ -16250,16 +16253,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/CompetencesCPGE2021_Modif.xlsx
+++ b/CompetencesCPGE2021_Modif.xlsx
@@ -21,10 +21,10 @@
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
+    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
     <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2575,6 +2575,27 @@
     <xf numFmtId="0" fontId="25" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2589,27 +2610,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3000,30 +3000,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="F1" s="135" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="F1" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="K1" s="135" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="K1" s="129" t="s">
         <v>421</v>
       </c>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="P1" s="135" t="s">
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="P1" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F2" s="58"/>
@@ -3164,7 +3164,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="126" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -3176,7 +3176,7 @@
       <c r="G6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="126" t="s">
         <v>329</v>
       </c>
       <c r="I6" s="50" t="s">
@@ -3188,7 +3188,7 @@
       <c r="L6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="M6" s="126" t="s">
         <v>426</v>
       </c>
       <c r="N6" s="50" t="s">
@@ -3200,7 +3200,7 @@
       <c r="Q6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="132" t="s">
+      <c r="R6" s="126" t="s">
         <v>329</v>
       </c>
       <c r="S6" s="50" t="s">
@@ -3214,7 +3214,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="G7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="133"/>
+      <c r="H7" s="127"/>
       <c r="I7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="L7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="133"/>
+      <c r="M7" s="127"/>
       <c r="N7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3244,7 +3244,7 @@
       <c r="Q7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="133"/>
+      <c r="R7" s="127"/>
       <c r="S7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="G8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="133"/>
+      <c r="H8" s="127"/>
       <c r="I8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="L8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="133"/>
+      <c r="M8" s="127"/>
       <c r="N8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3286,7 +3286,7 @@
       <c r="Q8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="133"/>
+      <c r="R8" s="127"/>
       <c r="S8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="G9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="134"/>
+      <c r="H9" s="128"/>
       <c r="I9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="L9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="134"/>
+      <c r="M9" s="128"/>
       <c r="N9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="Q9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="134"/>
+      <c r="R9" s="128"/>
       <c r="S9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3374,7 +3374,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="126" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -3386,7 +3386,7 @@
       <c r="G11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="126" t="s">
         <v>330</v>
       </c>
       <c r="I11" s="50" t="s">
@@ -3398,7 +3398,7 @@
       <c r="L11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="132" t="s">
+      <c r="M11" s="126" t="s">
         <v>330</v>
       </c>
       <c r="N11" s="50" t="s">
@@ -3410,7 +3410,7 @@
       <c r="Q11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R11" s="132" t="s">
+      <c r="R11" s="126" t="s">
         <v>330</v>
       </c>
       <c r="S11" s="50" t="s">
@@ -3424,7 +3424,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3434,7 +3434,7 @@
       <c r="G12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="134"/>
+      <c r="H12" s="128"/>
       <c r="I12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="L12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M12" s="134"/>
+      <c r="M12" s="128"/>
       <c r="N12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="Q12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="R12" s="134"/>
+      <c r="R12" s="128"/>
       <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="126" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -3560,7 +3560,7 @@
       <c r="G15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="132" t="s">
+      <c r="H15" s="126" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="50" t="s">
@@ -3572,7 +3572,7 @@
       <c r="L15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="132" t="s">
+      <c r="M15" s="126" t="s">
         <v>331</v>
       </c>
       <c r="N15" s="50" t="s">
@@ -3584,7 +3584,7 @@
       <c r="Q15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R15" s="132" t="s">
+      <c r="R15" s="126" t="s">
         <v>331</v>
       </c>
       <c r="S15" s="50" t="s">
@@ -3598,7 +3598,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="G16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="133"/>
+      <c r="H16" s="127"/>
       <c r="I16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="L16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="133"/>
+      <c r="M16" s="127"/>
       <c r="N16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="Q16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="133"/>
+      <c r="R16" s="127"/>
       <c r="S16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3650,7 +3650,7 @@
       <c r="G17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="133"/>
+      <c r="H17" s="127"/>
       <c r="I17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="L17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="133"/>
+      <c r="M17" s="127"/>
       <c r="N17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3670,7 +3670,7 @@
       <c r="Q17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="133"/>
+      <c r="R17" s="127"/>
       <c r="S17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="G18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="134"/>
+      <c r="H18" s="128"/>
       <c r="I18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="L18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="134"/>
+      <c r="M18" s="128"/>
       <c r="N18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="Q18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="R18" s="134"/>
+      <c r="R18" s="128"/>
       <c r="S18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="126" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -3928,7 +3928,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="134"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="126" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -4101,7 +4101,7 @@
       <c r="G28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="132" t="s">
+      <c r="H28" s="126" t="s">
         <v>339</v>
       </c>
       <c r="I28" s="50" t="s">
@@ -4113,7 +4113,7 @@
       <c r="L28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="132" t="s">
+      <c r="M28" s="126" t="s">
         <v>339</v>
       </c>
       <c r="N28" s="50" t="s">
@@ -4125,7 +4125,7 @@
       <c r="Q28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R28" s="132" t="s">
+      <c r="R28" s="126" t="s">
         <v>339</v>
       </c>
       <c r="S28" s="50" t="s">
@@ -4139,7 +4139,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="133"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="G29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="133"/>
+      <c r="H29" s="127"/>
       <c r="I29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="L29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="133"/>
+      <c r="M29" s="127"/>
       <c r="N29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="Q29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="133"/>
+      <c r="R29" s="127"/>
       <c r="S29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="133"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="G30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="133"/>
+      <c r="H30" s="127"/>
       <c r="I30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="L30" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M30" s="133"/>
+      <c r="M30" s="127"/>
       <c r="N30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="Q30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="R30" s="133"/>
+      <c r="R30" s="127"/>
       <c r="S30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="134"/>
+      <c r="C31" s="128"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="G31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="134"/>
+      <c r="H31" s="128"/>
       <c r="I31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="L31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M31" s="134"/>
+      <c r="M31" s="128"/>
       <c r="N31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="Q31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="R31" s="134"/>
+      <c r="R31" s="128"/>
       <c r="S31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="132" t="s">
+      <c r="C33" s="126" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -4300,7 +4300,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="133"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -4326,7 +4326,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="134"/>
+      <c r="C35" s="128"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="132" t="s">
+      <c r="C36" s="126" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -4380,7 +4380,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="133"/>
+      <c r="C37" s="127"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -4406,7 +4406,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="134"/>
+      <c r="C38" s="128"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -4521,7 +4521,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="125" t="s">
+      <c r="C42" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -4533,7 +4533,7 @@
       <c r="G42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="125" t="s">
+      <c r="H42" s="132" t="s">
         <v>205</v>
       </c>
       <c r="I42" s="51" t="s">
@@ -4545,7 +4545,7 @@
       <c r="L42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M42" s="125" t="s">
+      <c r="M42" s="132" t="s">
         <v>205</v>
       </c>
       <c r="N42" s="51" t="s">
@@ -4557,7 +4557,7 @@
       <c r="Q42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="R42" s="125" t="s">
+      <c r="R42" s="132" t="s">
         <v>205</v>
       </c>
       <c r="S42" s="51" t="s">
@@ -4571,7 +4571,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="126"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="G43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="126"/>
+      <c r="H43" s="133"/>
       <c r="I43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="L43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="127"/>
+      <c r="M43" s="134"/>
       <c r="N43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="Q43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="126"/>
+      <c r="R43" s="133"/>
       <c r="S43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4613,7 +4613,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="126"/>
+      <c r="C44" s="133"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="G44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="126"/>
+      <c r="H44" s="133"/>
       <c r="I44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4643,7 +4643,7 @@
       <c r="Q44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="R44" s="126"/>
+      <c r="R44" s="133"/>
       <c r="S44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="127"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="G45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H45" s="127"/>
+      <c r="H45" s="134"/>
       <c r="I45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="Q45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="R45" s="127"/>
+      <c r="R45" s="134"/>
       <c r="S45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="125" t="s">
+      <c r="C48" s="132" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -4793,7 +4793,7 @@
       <c r="G48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="125" t="s">
+      <c r="H48" s="132" t="s">
         <v>343</v>
       </c>
       <c r="I48" s="51" t="s">
@@ -4805,7 +4805,7 @@
       <c r="L48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M48" s="125" t="s">
+      <c r="M48" s="132" t="s">
         <v>343</v>
       </c>
       <c r="N48" s="51" t="s">
@@ -4817,7 +4817,7 @@
       <c r="Q48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R48" s="125" t="s">
+      <c r="R48" s="132" t="s">
         <v>343</v>
       </c>
       <c r="S48" s="51" t="s">
@@ -4831,7 +4831,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="127"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4841,7 +4841,7 @@
       <c r="G49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="127"/>
+      <c r="H49" s="134"/>
       <c r="I49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="L49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="M49" s="127"/>
+      <c r="M49" s="134"/>
       <c r="N49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="Q49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R49" s="127"/>
+      <c r="R49" s="134"/>
       <c r="S49" s="51" t="s">
         <v>185</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="125" t="s">
+      <c r="C58" s="132" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -5247,7 +5247,7 @@
       <c r="G58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="125" t="s">
+      <c r="H58" s="132" t="s">
         <v>413</v>
       </c>
       <c r="I58" s="51" t="s">
@@ -5259,7 +5259,7 @@
       <c r="L58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="M58" s="125" t="s">
+      <c r="M58" s="132" t="s">
         <v>413</v>
       </c>
       <c r="N58" s="51" t="s">
@@ -5271,7 +5271,7 @@
       <c r="Q58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="R58" s="125" t="s">
+      <c r="R58" s="132" t="s">
         <v>413</v>
       </c>
       <c r="S58" s="51" t="s">
@@ -5285,7 +5285,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="127"/>
+      <c r="C59" s="134"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5295,7 +5295,7 @@
       <c r="G59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H59" s="127"/>
+      <c r="H59" s="134"/>
       <c r="I59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="L59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M59" s="127"/>
+      <c r="M59" s="134"/>
       <c r="N59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="Q59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="R59" s="127"/>
+      <c r="R59" s="134"/>
       <c r="S59" s="51" t="s">
         <v>169</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="128" t="s">
+      <c r="C92" s="135" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -6652,7 +6652,7 @@
       <c r="G92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H92" s="128" t="s">
+      <c r="H92" s="135" t="s">
         <v>427</v>
       </c>
       <c r="I92" s="52" t="s">
@@ -6664,7 +6664,7 @@
       <c r="L92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="M92" s="128" t="s">
+      <c r="M92" s="135" t="s">
         <v>427</v>
       </c>
       <c r="N92" s="52" t="s">
@@ -6676,7 +6676,7 @@
       <c r="Q92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R92" s="128" t="s">
+      <c r="R92" s="135" t="s">
         <v>427</v>
       </c>
       <c r="S92" s="52" t="s">
@@ -6690,7 +6690,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="129"/>
+      <c r="C93" s="136"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6700,7 +6700,7 @@
       <c r="G93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H93" s="129"/>
+      <c r="H93" s="136"/>
       <c r="I93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6710,7 +6710,7 @@
       <c r="L93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M93" s="129"/>
+      <c r="M93" s="136"/>
       <c r="N93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6720,7 +6720,7 @@
       <c r="Q93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R93" s="129"/>
+      <c r="R93" s="136"/>
       <c r="S93" s="52" t="s">
         <v>185</v>
       </c>
@@ -9155,28 +9155,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C117:C118"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="H92:H93"/>
     <mergeCell ref="H117:H118"/>
@@ -9193,11 +9176,28 @@
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M15:M18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:S71 F72:G72 I72:L72 N72:Q72 S72 F73:S163">
@@ -9228,12 +9228,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="91" t="s">
@@ -9276,7 +9276,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="126" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -9290,7 +9290,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -9302,7 +9302,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -9314,7 +9314,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -9336,7 +9336,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="126" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -9350,7 +9350,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -9386,7 +9386,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="126" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -9400,7 +9400,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -9412,7 +9412,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -9424,7 +9424,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -9492,7 +9492,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="126" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -9506,7 +9506,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="134"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -9556,7 +9556,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="126" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -9570,7 +9570,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="133"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -9582,7 +9582,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="133"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -9594,7 +9594,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="134"/>
+      <c r="C31" s="128"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -9616,7 +9616,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="132" t="s">
+      <c r="C33" s="126" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -9630,7 +9630,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="133"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -9642,7 +9642,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="134"/>
+      <c r="C35" s="128"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -9654,7 +9654,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="132" t="s">
+      <c r="C36" s="126" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -9668,7 +9668,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="133"/>
+      <c r="C37" s="127"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -9680,7 +9680,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="134"/>
+      <c r="C38" s="128"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -9718,7 +9718,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="125" t="s">
+      <c r="C42" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -9732,7 +9732,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="126"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -9744,7 +9744,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="126"/>
+      <c r="C44" s="133"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -9756,7 +9756,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="127"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="125" t="s">
+      <c r="C48" s="132" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -9806,7 +9806,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="127"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -9930,7 +9930,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="125" t="s">
+      <c r="C58" s="132" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -9944,7 +9944,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="127"/>
+      <c r="C59" s="134"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -10378,7 +10378,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="128" t="s">
+      <c r="C92" s="135" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -10392,7 +10392,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="129"/>
+      <c r="C93" s="136"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -11214,12 +11214,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C23:C24"/>
@@ -11227,6 +11221,12 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11237,8 +11237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11251,12 +11251,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
@@ -11305,7 +11305,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="126" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -11319,7 +11319,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -11331,7 +11331,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -11343,7 +11343,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -11365,7 +11365,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="126" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -11379,7 +11379,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -11415,7 +11415,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="126" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -11429,7 +11429,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -11441,7 +11441,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -11453,7 +11453,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -11559,7 +11559,7 @@
       <c r="B26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="132" t="s">
+      <c r="C26" s="126" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="50" t="s">
@@ -11573,7 +11573,7 @@
       <c r="B27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="133"/>
+      <c r="C27" s="127"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -11585,7 +11585,7 @@
       <c r="B28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="133"/>
+      <c r="C28" s="127"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -11597,7 +11597,7 @@
       <c r="B29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="134"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -11635,7 +11635,7 @@
       <c r="B33" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="51" t="s">
@@ -11649,7 +11649,7 @@
       <c r="B34" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="126"/>
+      <c r="C34" s="133"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -11661,7 +11661,7 @@
       <c r="B35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="126"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -11673,7 +11673,7 @@
       <c r="B36" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="127"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="51" t="s">
         <v>181</v>
       </c>
@@ -11709,7 +11709,7 @@
       <c r="B39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="125" t="s">
+      <c r="C39" s="132" t="s">
         <v>343</v>
       </c>
       <c r="D39" s="51" t="s">
@@ -11723,7 +11723,7 @@
       <c r="B40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="127"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="51" t="s">
         <v>185</v>
       </c>
@@ -11826,28 +11826,28 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="18" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="114" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="125" t="s">
+      <c r="C48" s="132" t="s">
         <v>413</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="18" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="114" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C49" s="127"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="51" t="s">
         <v>169</v>
       </c>
@@ -12108,10 +12108,10 @@
       <c r="A70" s="61" t="s">
         <v>457</v>
       </c>
-      <c r="B70" s="136" t="s">
+      <c r="B70" s="125" t="s">
         <v>451</v>
       </c>
-      <c r="C70" s="136" t="s">
+      <c r="C70" s="125" t="s">
         <v>452</v>
       </c>
       <c r="D70" s="52" t="s">
@@ -12122,10 +12122,10 @@
       <c r="A71" s="61" t="s">
         <v>458</v>
       </c>
-      <c r="B71" s="136" t="s">
+      <c r="B71" s="125" t="s">
         <v>453</v>
       </c>
-      <c r="C71" s="136" t="s">
+      <c r="C71" s="125" t="s">
         <v>454</v>
       </c>
       <c r="D71" s="52" t="s">
@@ -12136,10 +12136,10 @@
       <c r="A72" s="61" t="s">
         <v>459</v>
       </c>
-      <c r="B72" s="136" t="s">
+      <c r="B72" s="125" t="s">
         <v>455</v>
       </c>
-      <c r="C72" s="136" t="s">
+      <c r="C72" s="125" t="s">
         <v>456</v>
       </c>
       <c r="D72" s="52" t="s">
@@ -12999,12 +12999,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="129" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
@@ -13053,7 +13053,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="126" t="s">
         <v>426</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -13067,7 +13067,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -13079,7 +13079,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -13091,7 +13091,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -13113,7 +13113,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="126" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -13127,7 +13127,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -13163,7 +13163,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="126" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -13177,7 +13177,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -13189,7 +13189,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -13201,7 +13201,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -13293,7 +13293,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="126" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -13307,7 +13307,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="133"/>
+      <c r="C26" s="127"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -13319,7 +13319,7 @@
       <c r="B27" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C27" s="133"/>
+      <c r="C27" s="127"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -13331,7 +13331,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="134"/>
+      <c r="C28" s="128"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -13369,7 +13369,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -13383,7 +13383,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="127"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -13443,7 +13443,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="132" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -13457,7 +13457,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="127"/>
+      <c r="C39" s="134"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -13553,7 +13553,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="125" t="s">
+      <c r="C46" s="132" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -13567,7 +13567,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="127"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -13901,7 +13901,7 @@
       <c r="B73" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="128" t="s">
+      <c r="C73" s="135" t="s">
         <v>427</v>
       </c>
       <c r="D73" s="52" t="s">
@@ -13915,7 +13915,7 @@
       <c r="B74" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="129"/>
+      <c r="C74" s="136"/>
       <c r="D74" s="52" t="s">
         <v>185</v>
       </c>
@@ -14716,16 +14716,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14750,12 +14750,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
@@ -14804,7 +14804,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="126" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -14818,7 +14818,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="133"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -14842,7 +14842,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="134"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -14864,7 +14864,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="126" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -14878,7 +14878,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -14912,7 +14912,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="126" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -14926,7 +14926,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="133"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -14938,7 +14938,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="133"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -15042,7 +15042,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="126" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -15056,7 +15056,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="133"/>
+      <c r="C26" s="127"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -15068,7 +15068,7 @@
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="133"/>
+      <c r="C27" s="127"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -15080,7 +15080,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="134"/>
+      <c r="C28" s="128"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -15118,7 +15118,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="132" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -15132,7 +15132,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="126"/>
+      <c r="C33" s="133"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -15144,7 +15144,7 @@
       <c r="B34" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="126"/>
+      <c r="C34" s="133"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -15156,7 +15156,7 @@
       <c r="B35" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="127"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -15192,7 +15192,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="132" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -15206,7 +15206,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="127"/>
+      <c r="C39" s="134"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -15302,7 +15302,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="125" t="s">
+      <c r="C46" s="132" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -15316,7 +15316,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="127"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -15636,7 +15636,7 @@
       <c r="B72" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="128" t="s">
+      <c r="C72" s="135" t="s">
         <v>427</v>
       </c>
       <c r="D72" s="52" t="s">
@@ -15650,7 +15650,7 @@
       <c r="B73" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="129"/>
+      <c r="C73" s="136"/>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
@@ -16253,16 +16253,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
